--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71543BCB-F2B1-4001-BF33-E07C0FCDC820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Cupboard Location" sheetId="2" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="182">
   <si>
     <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,10 +412,6 @@
   </si>
   <si>
     <t>Treat. Rm (Rm705)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Treat. Rm [搵姑娘開門]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -716,13 +711,17 @@
   </si>
   <si>
     <t>Treat. Rm (借匙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treat. Rm [C0981]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -924,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -988,11 +987,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,23 +1089,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1139,23 +1124,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1331,14 +1299,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1385,27 +1353,27 @@
         <v>94</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>72</v>
@@ -1422,12 +1390,12 @@
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
         <v>73</v>
@@ -1447,17 +1415,17 @@
         <v>11</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>73</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>1</v>
@@ -1471,11 +1439,11 @@
         <v>0</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>72</v>
@@ -1495,13 +1463,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>72</v>
@@ -1521,13 +1489,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="C7" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>72</v>
@@ -1547,13 +1515,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="C8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>72</v>
@@ -1573,13 +1541,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="C9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>73</v>
@@ -1599,31 +1567,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="C10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>73</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -1631,13 +1599,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>73</v>
@@ -1657,57 +1625,57 @@
         <v>9</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>73</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>73</v>
       </c>
       <c r="H13" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -1715,11 +1683,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>72</v>
@@ -1728,7 +1696,7 @@
         <v>90</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1739,11 +1707,11 @@
         <v>19</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>73</v>
@@ -1752,7 +1720,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1763,13 +1731,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>72</v>
@@ -1781,7 +1749,7 @@
         <v>90</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="13" t="s">
@@ -1793,20 +1761,20 @@
         <v>15</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>72</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
@@ -1817,29 +1785,29 @@
         <v>16</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="C18" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>73</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>90</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -1847,20 +1815,20 @@
         <v>17</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>73</v>
       </c>
       <c r="H19" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1871,25 +1839,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="C20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>73</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="13"/>
@@ -1899,11 +1867,11 @@
         <v>27</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>73</v>
@@ -1923,9 +1891,9 @@
         <v>28</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12" t="s">
         <v>73</v>
@@ -1945,11 +1913,11 @@
         <v>20</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>72</v>
@@ -1969,13 +1937,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="C24" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>72</v>
@@ -1992,16 +1960,16 @@
     </row>
     <row r="25" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="C25" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>72</v>
@@ -2022,18 +1990,18 @@
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+        <v>131</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>72</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>2</v>
@@ -2047,22 +2015,22 @@
         <v>23</v>
       </c>
       <c r="B27" s="9"/>
-      <c r="C27" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="C27" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>73</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -2072,20 +2040,20 @@
       <c r="A28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>73</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>2</v>
@@ -2098,20 +2066,20 @@
       <c r="A29" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>73</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>2</v>
@@ -2124,51 +2092,51 @@
       <c r="A30" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>73</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>2</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="L30" s="13"/>
     </row>
     <row r="31" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
+        <v>124</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>72</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -2178,41 +2146,41 @@
       <c r="A32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>73</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>80</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12" t="s">
@@ -2232,11 +2200,11 @@
       <c r="A34" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23" t="s">
-        <v>132</v>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="12" t="s">
@@ -2256,21 +2224,21 @@
       <c r="A35" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23" t="s">
-        <v>131</v>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="12" t="s">
         <v>75</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -2280,13 +2248,13 @@
       <c r="A36" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23" t="s">
-        <v>131</v>
+      <c r="B36" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="12" t="s">
@@ -2306,13 +2274,13 @@
       <c r="A37" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23" t="s">
+      <c r="B37" s="10" t="s">
         <v>131</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="12" t="s">
@@ -2332,13 +2300,13 @@
       <c r="A38" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23" t="s">
-        <v>132</v>
+      <c r="B38" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="12" t="s">
@@ -2358,13 +2326,13 @@
       <c r="A39" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="12" t="s">
@@ -2384,20 +2352,20 @@
       <c r="A40" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="12" t="s">
         <v>76</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>2</v>
@@ -2410,20 +2378,20 @@
       <c r="A41" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23" t="s">
-        <v>133</v>
+      <c r="B41" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="12" t="s">
         <v>76</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>2</v>
@@ -2436,13 +2404,13 @@
       <c r="A42" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23" t="s">
+      <c r="B42" s="10" t="s">
         <v>132</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="12" t="s">
@@ -2455,22 +2423,22 @@
         <v>2</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>132</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="12" t="s">
@@ -2481,7 +2449,7 @@
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="13"/>
@@ -2490,23 +2458,23 @@
       <c r="A44" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23" t="s">
-        <v>133</v>
+      <c r="B44" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="12" t="s">
         <v>76</v>
       </c>
       <c r="H44" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -2516,13 +2484,13 @@
       <c r="A45" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23" t="s">
-        <v>157</v>
+      <c r="B45" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="12" t="s">
@@ -2532,7 +2500,7 @@
         <v>38</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -2542,20 +2510,20 @@
       <c r="A46" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23" t="s">
+      <c r="B46" s="10" t="s">
         <v>132</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="12" t="s">
         <v>76</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>90</v>
@@ -2568,13 +2536,13 @@
       <c r="A47" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23" t="s">
+      <c r="B47" s="10" t="s">
         <v>132</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="12" t="s">
@@ -2587,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="13"/>
@@ -2596,12 +2564,10 @@
       <c r="A48" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23" t="s">
-        <v>131</v>
-      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
       <c r="F48" s="11"/>
       <c r="G48" s="12" t="s">
         <v>75</v>
@@ -2610,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -2620,13 +2586,13 @@
       <c r="A49" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23" t="s">
-        <v>131</v>
+      <c r="B49" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="12" t="s">
@@ -2646,20 +2612,20 @@
       <c r="A50" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23" t="s">
+      <c r="B50" s="10" t="s">
         <v>131</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="12" t="s">
         <v>75</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>2</v>
@@ -2670,22 +2636,18 @@
     </row>
     <row r="51" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23" t="s">
-        <v>132</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
       <c r="F51" s="11"/>
       <c r="G51" s="12" t="s">
         <v>75</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>2</v>
@@ -2698,13 +2660,13 @@
       <c r="A52" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="12" t="s">
@@ -2724,13 +2686,13 @@
       <c r="A53" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="12" t="s">
@@ -2752,13 +2714,13 @@
       <c r="A54" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23" t="s">
-        <v>133</v>
+      <c r="B54" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="12" t="s">
@@ -2778,16 +2740,16 @@
       <c r="A55" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23" t="s">
+      <c r="B55" s="10" t="s">
         <v>132</v>
       </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="F55" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>76</v>
@@ -2807,19 +2769,19 @@
         <v>85</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="12" t="s">
         <v>75</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>95</v>
@@ -2830,23 +2792,23 @@
     </row>
     <row r="57" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23" t="s">
-        <v>131</v>
+        <v>122</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="12" t="s">
         <v>75</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -2856,20 +2818,20 @@
       <c r="A58" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23" t="s">
+      <c r="B58" s="10" t="s">
         <v>131</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>1</v>
@@ -2882,11 +2844,11 @@
       <c r="A59" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23" t="s">
-        <v>132</v>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="12" t="s">
@@ -2896,7 +2858,7 @@
         <v>92</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="7"/>
@@ -2906,13 +2868,13 @@
       <c r="A60" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="12" t="s">
@@ -2932,13 +2894,13 @@
       <c r="A61" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="12" t="s">
@@ -2958,20 +2920,20 @@
       <c r="A62" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23" t="s">
-        <v>133</v>
+      <c r="B62" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="12" t="s">
         <v>76</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>2</v>
@@ -2986,44 +2948,44 @@
     </row>
     <row r="63" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
+        <v>171</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
       <c r="F63" s="11"/>
       <c r="G63" s="12" t="s">
         <v>76</v>
       </c>
       <c r="H63" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="I63" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="J63" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K63" s="7"/>
       <c r="L63" s="13"/>
     </row>
     <row r="64" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23" t="s">
-        <v>132</v>
+        <v>138</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="12" t="s">
         <v>76</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>2</v>
@@ -3034,23 +2996,23 @@
     </row>
     <row r="65" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23" t="s">
-        <v>132</v>
+        <v>147</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="12" t="s">
         <v>76</v>
       </c>
       <c r="H65" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I65" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -3060,21 +3022,21 @@
       <c r="A66" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="24"/>
       <c r="F66" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>72</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -3084,11 +3046,11 @@
       <c r="A67" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="12" t="s">
@@ -3101,7 +3063,7 @@
         <v>98</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>56</v>
@@ -3114,18 +3076,18 @@
       <c r="A68" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23" t="s">
-        <v>134</v>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="12" t="s">
         <v>74</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>2</v>
@@ -3138,24 +3100,24 @@
       <c r="A69" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="12" t="s">
         <v>74</v>
       </c>
       <c r="H69" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I69" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J69" s="25" t="s">
         <v>151</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="13"/>
@@ -3165,12 +3127,12 @@
         <v>50</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="12" t="s">
@@ -3183,7 +3145,7 @@
         <v>99</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K70" s="7"/>
       <c r="L70" s="13"/>
@@ -3193,12 +3155,12 @@
         <v>51</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="12" t="s">
@@ -3208,10 +3170,10 @@
         <v>52</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="13"/>
@@ -3221,10 +3183,10 @@
         <v>53</v>
       </c>
       <c r="B72" s="9"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23" t="s">
-        <v>134</v>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="12" t="s">
@@ -3234,7 +3196,7 @@
         <v>54</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -3367,11 +3329,6 @@
       <c r="G86" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L72" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L72">
-      <sortCondition ref="A1:A72"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C85478F-B84F-4D10-A069-A47EEEFA3BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cupboard Location" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="183">
   <si>
     <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -715,13 +716,17 @@
   </si>
   <si>
     <t>Treat. Rm [C0981]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scanner M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -923,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -987,14 +992,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,6 +1091,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1124,6 +1143,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1299,14 +1335,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1358,7 +1394,7 @@
       <c r="K1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1367,11 +1403,11 @@
         <v>145</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="11" t="s">
         <v>131</v>
       </c>
@@ -1393,9 +1429,9 @@
         <v>117</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
         <v>73</v>
@@ -1415,8 +1451,8 @@
         <v>11</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
         <v>133</v>
@@ -1439,9 +1475,9 @@
         <v>0</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="11" t="s">
         <v>131</v>
       </c>
@@ -1463,11 +1499,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="11" t="s">
         <v>130</v>
       </c>
@@ -1489,11 +1525,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="11" t="s">
         <v>130</v>
       </c>
@@ -1515,11 +1551,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11" t="s">
         <v>130</v>
       </c>
@@ -1541,11 +1577,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="11" t="s">
         <v>132</v>
       </c>
@@ -1567,11 +1603,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="11" t="s">
         <v>132</v>
       </c>
@@ -1599,11 +1635,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="11" t="s">
         <v>133</v>
       </c>
@@ -1625,9 +1661,9 @@
         <v>9</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="11" t="s">
         <v>133</v>
       </c>
@@ -1653,11 +1689,15 @@
       <c r="B13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="23" t="s">
+        <v>156</v>
+      </c>
       <c r="F13" s="11" t="s">
         <v>131</v>
       </c>
@@ -1683,9 +1723,9 @@
         <v>12</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="11" t="s">
         <v>130</v>
       </c>
@@ -1707,9 +1747,9 @@
         <v>19</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="11" t="s">
         <v>166</v>
       </c>
@@ -1731,11 +1771,11 @@
         <v>13</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="11" t="s">
         <v>131</v>
       </c>
@@ -1761,9 +1801,9 @@
         <v>15</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="11" t="s">
         <v>130</v>
       </c>
@@ -1785,11 +1825,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11" t="s">
         <v>132</v>
       </c>
@@ -1815,9 +1855,9 @@
         <v>17</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="11" t="s">
         <v>133</v>
       </c>
@@ -1839,11 +1879,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="11" t="s">
         <v>133</v>
       </c>
@@ -1867,9 +1907,9 @@
         <v>27</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="11" t="s">
         <v>166</v>
       </c>
@@ -1891,9 +1931,9 @@
         <v>28</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="11"/>
       <c r="G22" s="12" t="s">
         <v>73</v>
@@ -1913,9 +1953,9 @@
         <v>20</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11" t="s">
         <v>131</v>
       </c>
@@ -1937,11 +1977,11 @@
         <v>21</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="11" t="s">
         <v>130</v>
       </c>
@@ -1963,11 +2003,11 @@
         <v>100</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="11" t="s">
         <v>130</v>
       </c>
@@ -1992,8 +2032,8 @@
       <c r="C26" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="11" t="s">
         <v>130</v>
       </c>
@@ -2015,11 +2055,11 @@
         <v>23</v>
       </c>
       <c r="B27" s="9"/>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="11" t="s">
         <v>132</v>
       </c>
@@ -2040,12 +2080,12 @@
       <c r="A28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="11" t="s">
         <v>132</v>
       </c>
@@ -2066,12 +2106,12 @@
       <c r="A29" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="11" t="s">
         <v>133</v>
       </c>
@@ -2092,12 +2132,12 @@
       <c r="A30" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="11" t="s">
         <v>133</v>
       </c>
@@ -2122,10 +2162,10 @@
       <c r="A31" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="11" t="s">
         <v>130</v>
       </c>
@@ -2146,12 +2186,12 @@
       <c r="A32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="11" t="s">
         <v>132</v>
       </c>
@@ -2176,10 +2216,10 @@
       <c r="A33" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23" t="s">
         <v>131</v>
       </c>
       <c r="F33" s="11"/>
@@ -2200,10 +2240,10 @@
       <c r="A34" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
         <v>131</v>
       </c>
       <c r="F34" s="11"/>
@@ -2224,10 +2264,10 @@
       <c r="A35" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
         <v>130</v>
       </c>
       <c r="F35" s="11"/>
@@ -2248,12 +2288,12 @@
       <c r="A36" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10" t="s">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
         <v>130</v>
       </c>
       <c r="F36" s="11"/>
@@ -2274,12 +2314,12 @@
       <c r="A37" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10" t="s">
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23" t="s">
         <v>130</v>
       </c>
       <c r="F37" s="11"/>
@@ -2300,12 +2340,12 @@
       <c r="A38" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10" t="s">
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23" t="s">
         <v>131</v>
       </c>
       <c r="F38" s="11"/>
@@ -2326,12 +2366,12 @@
       <c r="A39" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10" t="s">
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23" t="s">
         <v>132</v>
       </c>
       <c r="F39" s="11"/>
@@ -2352,12 +2392,12 @@
       <c r="A40" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10" t="s">
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23" t="s">
         <v>132</v>
       </c>
       <c r="F40" s="11"/>
@@ -2378,12 +2418,12 @@
       <c r="A41" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10" t="s">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23" t="s">
         <v>132</v>
       </c>
       <c r="F41" s="11"/>
@@ -2404,12 +2444,12 @@
       <c r="A42" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10" t="s">
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23" t="s">
         <v>131</v>
       </c>
       <c r="F42" s="11"/>
@@ -2432,12 +2472,12 @@
       <c r="A43" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="s">
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23" t="s">
         <v>131</v>
       </c>
       <c r="F43" s="11"/>
@@ -2458,12 +2498,12 @@
       <c r="A44" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10" t="s">
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23" t="s">
         <v>132</v>
       </c>
       <c r="F44" s="11"/>
@@ -2484,12 +2524,12 @@
       <c r="A45" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10" t="s">
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23" t="s">
         <v>156</v>
       </c>
       <c r="F45" s="11"/>
@@ -2510,12 +2550,12 @@
       <c r="A46" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10" t="s">
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23" t="s">
         <v>131</v>
       </c>
       <c r="F46" s="11"/>
@@ -2536,12 +2576,12 @@
       <c r="A47" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10" t="s">
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23" t="s">
         <v>131</v>
       </c>
       <c r="F47" s="11"/>
@@ -2564,10 +2604,10 @@
       <c r="A48" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="11"/>
       <c r="G48" s="12" t="s">
         <v>75</v>
@@ -2586,12 +2626,12 @@
       <c r="A49" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10" t="s">
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23" t="s">
         <v>130</v>
       </c>
       <c r="F49" s="11"/>
@@ -2612,12 +2652,12 @@
       <c r="A50" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10" t="s">
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23" t="s">
         <v>130</v>
       </c>
       <c r="F50" s="11"/>
@@ -2638,10 +2678,10 @@
       <c r="A51" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
       <c r="F51" s="11"/>
       <c r="G51" s="12" t="s">
         <v>75</v>
@@ -2660,12 +2700,12 @@
       <c r="A52" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10" t="s">
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23" t="s">
         <v>132</v>
       </c>
       <c r="F52" s="11"/>
@@ -2686,12 +2726,12 @@
       <c r="A53" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10" t="s">
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23" t="s">
         <v>132</v>
       </c>
       <c r="F53" s="11"/>
@@ -2714,12 +2754,12 @@
       <c r="A54" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10" t="s">
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23" t="s">
         <v>132</v>
       </c>
       <c r="F54" s="11"/>
@@ -2740,12 +2780,12 @@
       <c r="A55" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10" t="s">
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23" t="s">
         <v>131</v>
       </c>
       <c r="F55" s="11" t="s">
@@ -2771,9 +2811,9 @@
       <c r="B56" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10" t="s">
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23" t="s">
         <v>130</v>
       </c>
       <c r="F56" s="11"/>
@@ -2794,10 +2834,10 @@
       <c r="A57" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23" t="s">
         <v>130</v>
       </c>
       <c r="F57" s="11"/>
@@ -2818,12 +2858,12 @@
       <c r="A58" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10" t="s">
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23" t="s">
         <v>130</v>
       </c>
       <c r="F58" s="11"/>
@@ -2844,10 +2884,10 @@
       <c r="A59" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10" t="s">
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23" t="s">
         <v>131</v>
       </c>
       <c r="F59" s="11"/>
@@ -2868,12 +2908,12 @@
       <c r="A60" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10" t="s">
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23" t="s">
         <v>132</v>
       </c>
       <c r="F60" s="11"/>
@@ -2894,12 +2934,12 @@
       <c r="A61" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10" t="s">
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23" t="s">
         <v>132</v>
       </c>
       <c r="F61" s="11"/>
@@ -2920,12 +2960,12 @@
       <c r="A62" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10" t="s">
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23" t="s">
         <v>132</v>
       </c>
       <c r="F62" s="11"/>
@@ -2950,10 +2990,10 @@
       <c r="A63" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
       <c r="F63" s="11"/>
       <c r="G63" s="12" t="s">
         <v>76</v>
@@ -2974,10 +3014,10 @@
       <c r="A64" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10" t="s">
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23" t="s">
         <v>131</v>
       </c>
       <c r="F64" s="11"/>
@@ -2998,10 +3038,10 @@
       <c r="A65" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10" t="s">
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23" t="s">
         <v>131</v>
       </c>
       <c r="F65" s="11"/>
@@ -3022,9 +3062,9 @@
       <c r="A66" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="24"/>
       <c r="F66" s="17" t="s">
         <v>131</v>
@@ -3046,9 +3086,9 @@
       <c r="A67" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="24" t="s">
         <v>133</v>
       </c>
@@ -3076,10 +3116,10 @@
       <c r="A68" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10" t="s">
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23" t="s">
         <v>133</v>
       </c>
       <c r="F68" s="11"/>
@@ -3100,9 +3140,9 @@
       <c r="A69" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="24" t="s">
         <v>133</v>
       </c>
@@ -3113,10 +3153,10 @@
       <c r="H69" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I69" s="25" t="s">
+      <c r="I69" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="J69" s="25" t="s">
+      <c r="J69" s="7" t="s">
         <v>151</v>
       </c>
       <c r="K69" s="7"/>
@@ -3129,9 +3169,9 @@
       <c r="B70" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10" t="s">
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23" t="s">
         <v>133</v>
       </c>
       <c r="F70" s="11"/>
@@ -3157,9 +3197,9 @@
       <c r="B71" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10" t="s">
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23" t="s">
         <v>133</v>
       </c>
       <c r="F71" s="11"/>
@@ -3183,9 +3223,9 @@
         <v>53</v>
       </c>
       <c r="B72" s="9"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10" t="s">
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23" t="s">
         <v>133</v>
       </c>
       <c r="F72" s="11"/>

--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C85478F-B84F-4D10-A069-A47EEEFA3BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A131648-8E01-4736-95A2-ECC35FA6653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -928,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -955,9 +955,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -978,9 +975,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1339,25 +1333,25 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="19" customWidth="1"/>
-    <col min="2" max="3" width="19.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="19.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48" style="20" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="38" style="20" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="19.140625" style="17" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="17" customWidth="1"/>
+    <col min="5" max="6" width="19.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48" style="18" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="38" style="18" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1382,7 +1376,7 @@
       <c r="G1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>93</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -1394,7 +1388,7 @@
       <c r="K1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1403,18 +1397,18 @@
         <v>145</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -1422,21 +1416,21 @@
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="13"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -1444,23 +1438,23 @@
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="13"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="20" t="s">
         <v>140</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -1468,23 +1462,23 @@
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="13"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="11" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>90</v>
       </c>
       <c r="I5" s="7" t="s">
@@ -1492,25 +1486,25 @@
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="13"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="I6" s="7" t="s">
@@ -1518,25 +1512,25 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="13"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="11" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="19" t="s">
         <v>78</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -1544,25 +1538,25 @@
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="13"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="19" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -1570,25 +1564,25 @@
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="13"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="11" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="19" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="7" t="s">
@@ -1596,25 +1590,25 @@
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="13"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="11" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="19" t="s">
         <v>101</v>
       </c>
       <c r="I10" s="7" t="s">
@@ -1623,10 +1617,10 @@
       <c r="J10" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="12" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1635,18 +1629,18 @@
         <v>8</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="11" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="7" t="s">
@@ -1654,23 +1648,23 @@
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="13"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="11" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="19" t="s">
         <v>128</v>
       </c>
       <c r="I12" s="7" t="s">
@@ -1680,31 +1674,31 @@
         <v>108</v>
       </c>
       <c r="K12" s="7"/>
-      <c r="L12" s="13"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="D13" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="E13" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="19" t="s">
         <v>143</v>
       </c>
       <c r="I13" s="7" t="s">
@@ -1714,7 +1708,7 @@
       <c r="K13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1723,16 +1717,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="11" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="19" t="s">
         <v>90</v>
       </c>
       <c r="I14" s="7" t="s">
@@ -1740,23 +1734,23 @@
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="13"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="11" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="7" t="s">
@@ -1764,25 +1758,25 @@
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="13"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="11" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="7" t="s">
@@ -1792,7 +1786,7 @@
         <v>108</v>
       </c>
       <c r="K16" s="7"/>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1801,42 +1795,42 @@
         <v>15</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="11" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="11" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="19" t="s">
         <v>170</v>
       </c>
       <c r="I18" s="7" t="s">
@@ -1855,16 +1849,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="11" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="19" t="s">
         <v>111</v>
       </c>
       <c r="I19" s="7" t="s">
@@ -1872,25 +1866,25 @@
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="13"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="11" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="19" t="s">
         <v>174</v>
       </c>
       <c r="I20" s="6" t="s">
@@ -1900,23 +1894,23 @@
         <v>108</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="13"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="11" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I21" s="7" t="s">
@@ -1924,21 +1918,21 @@
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="13"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="19" t="s">
         <v>2</v>
       </c>
       <c r="I22" s="7" t="s">
@@ -1946,23 +1940,23 @@
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="13"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="11" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="19" t="s">
         <v>90</v>
       </c>
       <c r="I23" s="7" t="s">
@@ -1970,25 +1964,25 @@
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="13"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="11" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="19" t="s">
         <v>2</v>
       </c>
       <c r="I24" s="7" t="s">
@@ -1996,25 +1990,25 @@
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="13"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="11" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="19" t="s">
         <v>2</v>
       </c>
       <c r="I25" s="7" t="s">
@@ -2022,25 +2016,25 @@
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="13"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="11" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="19" t="s">
         <v>148</v>
       </c>
       <c r="I26" s="7" t="s">
@@ -2048,25 +2042,25 @@
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="13"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="9"/>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="11" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="19" t="s">
         <v>175</v>
       </c>
       <c r="I27" s="7" t="s">
@@ -2074,22 +2068,22 @@
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="13"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="11" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H28" s="6" t="s">
@@ -2100,22 +2094,22 @@
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="13"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="11" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H29" s="6" t="s">
@@ -2126,22 +2120,22 @@
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="13"/>
+      <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="11" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H30" s="6" t="s">
@@ -2156,20 +2150,20 @@
       <c r="K30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L30" s="13"/>
+      <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="11" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H31" s="6" t="s">
@@ -2180,22 +2174,22 @@
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="13"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="11" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -2208,22 +2202,22 @@
       <c r="K32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12" t="s">
+      <c r="F33" s="10"/>
+      <c r="G33" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H33" s="6" t="s">
@@ -2234,20 +2228,20 @@
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="13"/>
+      <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12" t="s">
+      <c r="F34" s="10"/>
+      <c r="G34" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H34" s="6" t="s">
@@ -2258,20 +2252,20 @@
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="13"/>
+      <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12" t="s">
+      <c r="F35" s="10"/>
+      <c r="G35" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H35" s="6" t="s">
@@ -2282,22 +2276,22 @@
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="13"/>
+      <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12" t="s">
+      <c r="F36" s="10"/>
+      <c r="G36" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H36" s="6" t="s">
@@ -2308,22 +2302,22 @@
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="13"/>
+      <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12" t="s">
+      <c r="F37" s="10"/>
+      <c r="G37" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H37" s="6" t="s">
@@ -2334,22 +2328,22 @@
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="13"/>
+      <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="6" t="s">
@@ -2360,22 +2354,22 @@
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="13"/>
+      <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H39" s="6" t="s">
@@ -2386,22 +2380,22 @@
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="13"/>
+      <c r="L39" s="12"/>
     </row>
     <row r="40" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -2412,22 +2406,22 @@
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="13"/>
+      <c r="L40" s="12"/>
     </row>
     <row r="41" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12" t="s">
+      <c r="F41" s="10"/>
+      <c r="G41" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H41" s="6" t="s">
@@ -2438,22 +2432,22 @@
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="13"/>
+      <c r="L41" s="12"/>
     </row>
     <row r="42" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H42" s="6" t="s">
@@ -2466,22 +2460,22 @@
         <v>121</v>
       </c>
       <c r="K42" s="7"/>
-      <c r="L42" s="13"/>
+      <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12" t="s">
+      <c r="F43" s="10"/>
+      <c r="G43" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="6" t="s">
@@ -2492,22 +2486,22 @@
         <v>126</v>
       </c>
       <c r="K43" s="7"/>
-      <c r="L43" s="13"/>
+      <c r="L43" s="12"/>
     </row>
     <row r="44" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23" t="s">
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12" t="s">
+      <c r="F44" s="10"/>
+      <c r="G44" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -2518,22 +2512,22 @@
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
-      <c r="L44" s="13"/>
+      <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23" t="s">
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12" t="s">
+      <c r="F45" s="10"/>
+      <c r="G45" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H45" s="6" t="s">
@@ -2544,22 +2538,22 @@
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="13"/>
+      <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23" t="s">
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12" t="s">
+      <c r="F46" s="10"/>
+      <c r="G46" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H46" s="6" t="s">
@@ -2570,22 +2564,22 @@
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="13"/>
+      <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23" t="s">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12" t="s">
+      <c r="F47" s="10"/>
+      <c r="G47" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H47" s="6" t="s">
@@ -2598,18 +2592,18 @@
         <v>109</v>
       </c>
       <c r="K47" s="7"/>
-      <c r="L47" s="13"/>
+      <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12" t="s">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H48" s="6" t="s">
@@ -2620,22 +2614,22 @@
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="13"/>
+      <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12" t="s">
+      <c r="F49" s="10"/>
+      <c r="G49" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H49" s="6" t="s">
@@ -2646,22 +2640,22 @@
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="13"/>
+      <c r="L49" s="12"/>
     </row>
     <row r="50" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23" t="s">
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12" t="s">
+      <c r="F50" s="10"/>
+      <c r="G50" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H50" s="6" t="s">
@@ -2672,18 +2666,18 @@
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
-      <c r="L50" s="13"/>
+      <c r="L50" s="12"/>
     </row>
     <row r="51" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H51" s="6" t="s">
@@ -2694,22 +2688,22 @@
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
-      <c r="L51" s="13"/>
+      <c r="L51" s="12"/>
     </row>
     <row r="52" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23" t="s">
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12" t="s">
+      <c r="F52" s="10"/>
+      <c r="G52" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H52" s="6" t="s">
@@ -2720,22 +2714,22 @@
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
-      <c r="L52" s="13"/>
+      <c r="L52" s="12"/>
     </row>
     <row r="53" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23" t="s">
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12" t="s">
+      <c r="F53" s="10"/>
+      <c r="G53" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H53" s="6" t="s">
@@ -2748,22 +2742,22 @@
         <v>90</v>
       </c>
       <c r="K53" s="7"/>
-      <c r="L53" s="13"/>
+      <c r="L53" s="12"/>
     </row>
     <row r="54" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23" t="s">
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12" t="s">
+      <c r="F54" s="10"/>
+      <c r="G54" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H54" s="6" t="s">
@@ -2774,24 +2768,24 @@
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
-      <c r="L54" s="13"/>
+      <c r="L54" s="12"/>
     </row>
     <row r="55" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="G55" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H55" s="6" t="s">
@@ -2802,7 +2796,7 @@
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
-      <c r="L55" s="13"/>
+      <c r="L55" s="12"/>
     </row>
     <row r="56" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -2811,16 +2805,16 @@
       <c r="B56" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23" t="s">
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12" t="s">
+      <c r="F56" s="10"/>
+      <c r="G56" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H56" s="21" t="s">
+      <c r="H56" s="19" t="s">
         <v>164</v>
       </c>
       <c r="I56" s="7" t="s">
@@ -2828,20 +2822,20 @@
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="13"/>
+      <c r="L56" s="12"/>
     </row>
     <row r="57" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12" t="s">
+      <c r="F57" s="10"/>
+      <c r="G57" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H57" s="6" t="s">
@@ -2852,22 +2846,22 @@
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
-      <c r="L57" s="13"/>
+      <c r="L57" s="12"/>
     </row>
     <row r="58" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23" t="s">
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12" t="s">
+      <c r="F58" s="10"/>
+      <c r="G58" s="11" t="s">
         <v>79</v>
       </c>
       <c r="H58" s="6" t="s">
@@ -2878,20 +2872,20 @@
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
-      <c r="L58" s="13"/>
+      <c r="L58" s="12"/>
     </row>
     <row r="59" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23" t="s">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12" t="s">
+      <c r="F59" s="10"/>
+      <c r="G59" s="11" t="s">
         <v>79</v>
       </c>
       <c r="H59" s="6" t="s">
@@ -2902,22 +2896,22 @@
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="7"/>
-      <c r="L59" s="13"/>
+      <c r="L59" s="12"/>
     </row>
     <row r="60" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23" t="s">
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="12" t="s">
+      <c r="F60" s="10"/>
+      <c r="G60" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H60" s="6" t="s">
@@ -2928,22 +2922,22 @@
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
-      <c r="L60" s="13"/>
+      <c r="L60" s="12"/>
     </row>
     <row r="61" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23" t="s">
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12" t="s">
+      <c r="F61" s="10"/>
+      <c r="G61" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H61" s="6" t="s">
@@ -2954,22 +2948,22 @@
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
-      <c r="L61" s="13"/>
+      <c r="L61" s="12"/>
     </row>
     <row r="62" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23" t="s">
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="12" t="s">
+      <c r="F62" s="10"/>
+      <c r="G62" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H62" s="6" t="s">
@@ -2982,20 +2976,20 @@
       <c r="K62" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L62" s="13" t="s">
+      <c r="L62" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12" t="s">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H63" s="6" t="s">
@@ -3008,20 +3002,20 @@
         <v>108</v>
       </c>
       <c r="K63" s="7"/>
-      <c r="L63" s="13"/>
+      <c r="L63" s="12"/>
     </row>
     <row r="64" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23" t="s">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="12" t="s">
+      <c r="F64" s="10"/>
+      <c r="G64" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H64" s="6" t="s">
@@ -3032,20 +3026,20 @@
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
-      <c r="L64" s="13"/>
+      <c r="L64" s="12"/>
     </row>
     <row r="65" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23" t="s">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12" t="s">
+      <c r="F65" s="10"/>
+      <c r="G65" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H65" s="6" t="s">
@@ -3056,20 +3050,20 @@
       </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
-      <c r="L65" s="13"/>
+      <c r="L65" s="12"/>
     </row>
     <row r="66" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="17" t="s">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G66" s="12" t="s">
+      <c r="G66" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H66" s="6" t="s">
@@ -3080,20 +3074,20 @@
       </c>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-      <c r="L66" s="13"/>
+      <c r="L66" s="12"/>
     </row>
     <row r="67" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="24" t="s">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="12" t="s">
+      <c r="F67" s="16"/>
+      <c r="G67" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H67" s="6" t="s">
@@ -3108,22 +3102,22 @@
       <c r="K67" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L67" s="13" t="s">
+      <c r="L67" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23" t="s">
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12" t="s">
+      <c r="F68" s="10"/>
+      <c r="G68" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H68" s="6" t="s">
@@ -3134,20 +3128,20 @@
       </c>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
-      <c r="L68" s="13"/>
+      <c r="L68" s="12"/>
     </row>
     <row r="69" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="24" t="s">
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="12" t="s">
+      <c r="F69" s="16"/>
+      <c r="G69" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H69" s="6" t="s">
@@ -3160,22 +3154,22 @@
         <v>151</v>
       </c>
       <c r="K69" s="7"/>
-      <c r="L69" s="13"/>
+      <c r="L69" s="12"/>
     </row>
     <row r="70" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23" t="s">
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="12" t="s">
+      <c r="F70" s="10"/>
+      <c r="G70" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H70" s="6" t="s">
@@ -3188,22 +3182,22 @@
         <v>108</v>
       </c>
       <c r="K70" s="7"/>
-      <c r="L70" s="13"/>
+      <c r="L70" s="12"/>
     </row>
     <row r="71" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23" t="s">
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="12" t="s">
+      <c r="F71" s="10"/>
+      <c r="G71" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H71" s="6" t="s">
@@ -3216,20 +3210,20 @@
         <v>108</v>
       </c>
       <c r="K71" s="7"/>
-      <c r="L71" s="13"/>
+      <c r="L71" s="12"/>
     </row>
     <row r="72" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B72" s="9"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23" t="s">
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="12" t="s">
+      <c r="F72" s="10"/>
+      <c r="G72" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H72" s="6" t="s">
@@ -3240,133 +3234,7 @@
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
-      <c r="L72" s="13"/>
-    </row>
-    <row r="73" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="12"/>
-    </row>
-    <row r="74" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="12"/>
-    </row>
-    <row r="75" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="12"/>
-    </row>
-    <row r="76" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="18"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="12"/>
-    </row>
-    <row r="77" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="18"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="12"/>
-    </row>
-    <row r="78" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="18"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="12"/>
-    </row>
-    <row r="79" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="18"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="12"/>
-    </row>
-    <row r="80" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="18"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="12"/>
-    </row>
-    <row r="81" spans="1:7" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="12"/>
-    </row>
-    <row r="82" spans="1:7" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="18"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83" spans="1:7" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="18"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="12"/>
-    </row>
-    <row r="84" spans="1:7" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="18"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="12"/>
-    </row>
-    <row r="85" spans="1:7" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="18"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="12"/>
-    </row>
-    <row r="86" spans="1:7" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="18"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="12"/>
+      <c r="L72" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A131648-8E01-4736-95A2-ECC35FA6653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EE899A-7D24-4B92-958B-789D296A3EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,10 +695,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Treat. Rm [999]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Treat. Rm [911]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -720,6 +716,10 @@
   </si>
   <si>
     <t>Scanner M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treat. Rm [1238]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1335,8 +1335,8 @@
   </sheetPr>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1684,7 +1684,7 @@
         <v>156</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>156</v>
@@ -1693,7 +1693,7 @@
         <v>156</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>73</v>
@@ -1730,7 +1730,7 @@
         <v>90</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -2139,7 +2139,7 @@
         <v>73</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>2</v>
@@ -2425,7 +2425,7 @@
         <v>76</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>2</v>
@@ -2839,7 +2839,7 @@
         <v>75</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>123</v>
@@ -2865,7 +2865,7 @@
         <v>79</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>1</v>
@@ -2967,7 +2967,7 @@
         <v>76</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>2</v>

--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EE899A-7D24-4B92-958B-789D296A3EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B079AA53-76BE-4A88-8FCB-9263B9491945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Equipment Room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EFGH LOW</t>
   </si>
   <si>
@@ -720,6 +716,10 @@
   </si>
   <si>
     <t>Treat. Rm [1238]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪櫃左邊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1335,8 +1335,8 @@
   </sheetPr>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1377,13 +1377,13 @@
         <v>66</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>58</v>
@@ -1394,16 +1394,16 @@
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>72</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="21"/>
@@ -1449,13 +1449,13 @@
       <c r="D4" s="21"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>1</v>
@@ -1473,13 +1473,13 @@
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>2</v>
@@ -1494,12 +1494,12 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>72</v>
@@ -1520,18 +1520,18 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>2</v>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>72</v>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>73</v>
@@ -1598,30 +1598,30 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -1630,12 +1630,12 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>73</v>
@@ -1659,57 +1659,57 @@
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H13" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -1721,16 +1721,16 @@
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1745,7 +1745,7 @@
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>73</v>
@@ -1754,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1766,12 +1766,12 @@
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>72</v>
@@ -1780,10 +1780,10 @@
         <v>14</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="12" t="s">
@@ -1799,16 +1799,16 @@
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="14"/>
@@ -1820,28 +1820,28 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -1853,16 +1853,16 @@
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H19" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1874,24 +1874,24 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="12"/>
@@ -1905,7 +1905,7 @@
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>73</v>
@@ -1951,13 +1951,13 @@
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>2</v>
@@ -1972,12 +1972,12 @@
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>72</v>
@@ -1994,16 +1994,16 @@
     </row>
     <row r="25" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>72</v>
@@ -2024,18 +2024,18 @@
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>2</v>
@@ -2050,21 +2050,21 @@
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -2076,18 +2076,18 @@
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>2</v>
@@ -2102,18 +2102,18 @@
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>2</v>
@@ -2128,49 +2128,49 @@
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>2</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -2182,39 +2182,39 @@
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>73</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="11" t="s">
@@ -2238,7 +2238,7 @@
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="11" t="s">
@@ -2262,17 +2262,17 @@
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -2283,12 +2283,12 @@
         <v>30</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="11" t="s">
@@ -2306,15 +2306,15 @@
     </row>
     <row r="37" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="11" t="s">
@@ -2335,19 +2335,19 @@
         <v>31</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>2</v>
@@ -2361,12 +2361,12 @@
         <v>32</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="11" t="s">
@@ -2376,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -2387,19 +2387,19 @@
         <v>33</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>2</v>
@@ -2413,19 +2413,19 @@
         <v>34</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>2</v>
@@ -2439,12 +2439,12 @@
         <v>35</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="11" t="s">
@@ -2457,58 +2457,58 @@
         <v>2</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="12"/>
     </row>
     <row r="44" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H44" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -2519,12 +2519,12 @@
         <v>37</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="11" t="s">
@@ -2534,7 +2534,7 @@
         <v>38</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -2542,25 +2542,25 @@
     </row>
     <row r="46" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -2571,12 +2571,12 @@
         <v>46</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="11" t="s">
@@ -2589,7 +2589,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="12"/>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -2621,12 +2621,12 @@
         <v>40</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="11" t="s">
@@ -2647,19 +2647,19 @@
         <v>77</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
       <c r="E50" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>2</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="51" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -2681,7 +2681,7 @@
         <v>75</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>2</v>
@@ -2692,15 +2692,15 @@
     </row>
     <row r="52" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
       <c r="E52" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="11" t="s">
@@ -2721,25 +2721,25 @@
         <v>41</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
       <c r="E53" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>2</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="12"/>
@@ -2749,12 +2749,12 @@
         <v>42</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
       <c r="E54" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="11" t="s">
@@ -2775,15 +2775,15 @@
         <v>45</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>76</v>
@@ -2800,25 +2800,25 @@
     </row>
     <row r="56" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
       <c r="E56" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -2826,23 +2826,23 @@
     </row>
     <row r="57" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
       <c r="E57" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
@@ -2850,22 +2850,22 @@
     </row>
     <row r="58" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
       <c r="E58" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>1</v>
@@ -2876,23 +2876,23 @@
     </row>
     <row r="59" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
       <c r="E59" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="7"/>
@@ -2903,22 +2903,22 @@
         <v>64</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -2929,19 +2929,19 @@
         <v>47</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>2</v>
@@ -2955,34 +2955,34 @@
         <v>48</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>2</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -2993,33 +2993,33 @@
         <v>76</v>
       </c>
       <c r="H63" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I63" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="J63" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K63" s="7"/>
       <c r="L63" s="12"/>
     </row>
     <row r="64" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
       <c r="D64" s="21"/>
       <c r="E64" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>2</v>
@@ -3030,23 +3030,23 @@
     </row>
     <row r="65" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H65" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I65" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -3061,16 +3061,16 @@
       <c r="D66" s="21"/>
       <c r="E66" s="22"/>
       <c r="F66" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -3084,26 +3084,26 @@
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
       <c r="E67" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -3114,14 +3114,14 @@
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
       <c r="E68" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>2</v>
@@ -3138,20 +3138,20 @@
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
       <c r="E69" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H69" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J69" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="12"/>
@@ -3161,25 +3161,25 @@
         <v>50</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
       <c r="E70" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K70" s="7"/>
       <c r="L70" s="12"/>
@@ -3189,12 +3189,12 @@
         <v>51</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
       <c r="E71" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="11" t="s">
@@ -3204,10 +3204,10 @@
         <v>52</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="12"/>
@@ -3220,7 +3220,7 @@
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
       <c r="E72" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="11" t="s">
@@ -3230,7 +3230,7 @@
         <v>54</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>

--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B079AA53-76BE-4A88-8FCB-9263B9491945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02533893-827D-4EE6-B569-5060B5BCB0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="184">
   <si>
     <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -720,6 +720,10 @@
   </si>
   <si>
     <t>雪櫃左邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潔物房 A0905房 [506]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1335,8 +1339,8 @@
   </sheetPr>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A46" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection sqref="A1:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1665,7 +1669,7 @@
         <v>73</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>127</v>
@@ -3032,7 +3036,9 @@
       <c r="A65" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B65" s="21"/>
+      <c r="B65" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21" t="s">

--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02533893-827D-4EE6-B569-5060B5BCB0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859ABC91-8ED1-4680-AD2D-01BD35F8C948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="185">
   <si>
     <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -724,6 +724,10 @@
   </si>
   <si>
     <t>潔物房 A0905房 [506]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scanner N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1340,7 +1344,7 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection sqref="A1:L72"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3037,7 +3041,7 @@
         <v>146</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>

--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859ABC91-8ED1-4680-AD2D-01BD35F8C948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AADE50C-0CDC-467E-9A02-709BAD3EA644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="186">
   <si>
     <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -728,6 +728,10 @@
   </si>
   <si>
     <t>Scanner N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被服房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1343,8 +1347,8 @@
   </sheetPr>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A125" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2474,14 +2478,10 @@
       <c r="A43" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>131</v>
-      </c>
+      <c r="B43" s="21"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="21" t="s">
-        <v>130</v>
-      </c>
+      <c r="E43" s="21"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11" t="s">
         <v>76</v>
@@ -2606,10 +2606,14 @@
       <c r="A48" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="21" t="s">
+        <v>155</v>
+      </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="E48" s="21" t="s">
+        <v>155</v>
+      </c>
       <c r="F48" s="10"/>
       <c r="G48" s="11" t="s">
         <v>75</v>
@@ -3027,7 +3031,7 @@
         <v>76</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>2</v>

--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AADE50C-0CDC-467E-9A02-709BAD3EA644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFCB013-3A09-4137-A3C9-C0414DCC1202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="186">
   <si>
     <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,9 +576,6 @@
     <t>AE</t>
   </si>
   <si>
-    <t>Nursing Station</t>
-  </si>
-  <si>
     <t>直行最尾轉左(R3/4房)</t>
   </si>
   <si>
@@ -732,6 +729,10 @@
   </si>
   <si>
     <t>被服房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nursing Station 旁簾後</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1347,8 +1348,8 @@
   </sheetPr>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A125" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection sqref="A1:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1406,7 +1407,7 @@
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="21" t="s">
@@ -1677,7 +1678,7 @@
         <v>73</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>127</v>
@@ -1696,13 +1697,13 @@
         <v>129</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>129</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>130</v>
@@ -1711,18 +1712,14 @@
         <v>73</v>
       </c>
       <c r="H13" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="J13" s="7"/>
-      <c r="K13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>102</v>
-      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1742,7 +1739,7 @@
         <v>89</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1757,7 +1754,7 @@
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>73</v>
@@ -1795,7 +1792,7 @@
         <v>89</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="12" t="s">
@@ -1843,7 +1840,7 @@
         <v>73</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>89</v>
@@ -1897,7 +1894,7 @@
         <v>73</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>135</v>
@@ -1917,7 +1914,7 @@
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>73</v>
@@ -2047,7 +2044,7 @@
         <v>72</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>2</v>
@@ -2073,7 +2070,7 @@
         <v>73</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>134</v>
@@ -2099,7 +2096,7 @@
         <v>73</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>2</v>
@@ -2125,7 +2122,7 @@
         <v>73</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>2</v>
@@ -2151,7 +2148,7 @@
         <v>73</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>2</v>
@@ -2179,7 +2176,7 @@
         <v>72</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>138</v>
@@ -2205,7 +2202,7 @@
         <v>73</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>79</v>
@@ -2411,7 +2408,7 @@
         <v>76</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>2</v>
@@ -2437,7 +2434,7 @@
         <v>76</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>2</v>
@@ -2513,10 +2510,10 @@
         <v>76</v>
       </c>
       <c r="H44" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -2527,12 +2524,12 @@
         <v>37</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="11" t="s">
@@ -2542,7 +2539,7 @@
         <v>38</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -2565,7 +2562,7 @@
         <v>76</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>89</v>
@@ -2607,12 +2604,12 @@
         <v>39</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="11" t="s">
@@ -2622,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -2682,7 +2679,7 @@
     </row>
     <row r="51" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -2827,7 +2824,7 @@
         <v>75</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>94</v>
@@ -2851,7 +2848,7 @@
         <v>75</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>122</v>
@@ -2877,7 +2874,7 @@
         <v>78</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>1</v>
@@ -2904,7 +2901,7 @@
         <v>91</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="7"/>
@@ -2979,7 +2976,7 @@
         <v>76</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>2</v>
@@ -2994,7 +2991,7 @@
     </row>
     <row r="63" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -3005,10 +3002,10 @@
         <v>76</v>
       </c>
       <c r="H63" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>107</v>
@@ -3031,7 +3028,7 @@
         <v>76</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>2</v>
@@ -3042,10 +3039,10 @@
     </row>
     <row r="65" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
@@ -3057,10 +3054,10 @@
         <v>76</v>
       </c>
       <c r="H65" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I65" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -3135,7 +3132,7 @@
         <v>74</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>2</v>
@@ -3159,13 +3156,13 @@
         <v>74</v>
       </c>
       <c r="H69" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J69" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="12"/>
@@ -3244,7 +3241,7 @@
         <v>54</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>

--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFCB013-3A09-4137-A3C9-C0414DCC1202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587B8AF4-B391-4B8F-90EF-9DDFECE20197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="186">
   <si>
     <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -636,10 +636,6 @@
     <t>Treat. Rm [000]</t>
   </si>
   <si>
-    <t>Treat. Rm [502]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直行最尾轉右房 [2678]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,7 +728,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nursing Station 旁簾後</t>
+    <t>Treat. Rm[1234]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nursing Station旁簾後</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,7 +740,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,15 +765,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -941,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -994,9 +985,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1348,8 +1336,8 @@
   </sheetPr>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection sqref="A1:L72"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1410,11 +1398,11 @@
         <v>143</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="10" t="s">
         <v>130</v>
       </c>
@@ -1436,9 +1424,9 @@
         <v>116</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
         <v>73</v>
@@ -1458,8 +1446,8 @@
         <v>11</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
         <v>132</v>
@@ -1467,11 +1455,11 @@
       <c r="G4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>139</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1482,9 +1470,9 @@
         <v>0</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="10" t="s">
         <v>130</v>
       </c>
@@ -1506,11 +1494,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="10" t="s">
         <v>129</v>
       </c>
@@ -1532,11 +1520,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="10" t="s">
         <v>129</v>
       </c>
@@ -1558,11 +1546,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="10" t="s">
         <v>129</v>
       </c>
@@ -1584,11 +1572,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="10" t="s">
         <v>131</v>
       </c>
@@ -1610,11 +1598,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="10" t="s">
         <v>131</v>
       </c>
@@ -1642,11 +1630,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="10" t="s">
         <v>132</v>
       </c>
@@ -1668,9 +1656,9 @@
         <v>9</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="10" t="s">
         <v>132</v>
       </c>
@@ -1678,7 +1666,7 @@
         <v>73</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>127</v>
@@ -1696,13 +1684,13 @@
       <c r="B13" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>154</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -1718,17 +1706,21 @@
         <v>142</v>
       </c>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="12"/>
+      <c r="K13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="10" t="s">
         <v>129</v>
       </c>
@@ -1739,7 +1731,7 @@
         <v>89</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1750,11 +1742,11 @@
         <v>19</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>73</v>
@@ -1774,11 +1766,11 @@
         <v>13</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="10" t="s">
         <v>130</v>
       </c>
@@ -1792,7 +1784,7 @@
         <v>89</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="12" t="s">
@@ -1804,9 +1796,9 @@
         <v>15</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="10" t="s">
         <v>129</v>
       </c>
@@ -1828,11 +1820,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="10" t="s">
         <v>131</v>
       </c>
@@ -1840,7 +1832,7 @@
         <v>73</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>89</v>
@@ -1858,9 +1850,9 @@
         <v>17</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="10" t="s">
         <v>132</v>
       </c>
@@ -1882,11 +1874,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="10" t="s">
         <v>132</v>
       </c>
@@ -1894,7 +1886,7 @@
         <v>73</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>135</v>
@@ -1910,11 +1902,11 @@
         <v>27</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>73</v>
@@ -1934,9 +1926,9 @@
         <v>28</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="10"/>
       <c r="G22" s="11" t="s">
         <v>73</v>
@@ -1956,9 +1948,9 @@
         <v>20</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="10" t="s">
         <v>130</v>
       </c>
@@ -1980,11 +1972,11 @@
         <v>21</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="10" t="s">
         <v>129</v>
       </c>
@@ -2006,11 +1998,11 @@
         <v>99</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="10" t="s">
         <v>129</v>
       </c>
@@ -2035,8 +2027,8 @@
       <c r="C26" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="10" t="s">
         <v>129</v>
       </c>
@@ -2058,11 +2050,11 @@
         <v>23</v>
       </c>
       <c r="B27" s="9"/>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="10" t="s">
         <v>131</v>
       </c>
@@ -2070,7 +2062,7 @@
         <v>73</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>134</v>
@@ -2083,12 +2075,12 @@
       <c r="A28" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="10" t="s">
         <v>131</v>
       </c>
@@ -2096,7 +2088,7 @@
         <v>73</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>2</v>
@@ -2109,12 +2101,12 @@
       <c r="A29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="10" t="s">
         <v>132</v>
       </c>
@@ -2122,7 +2114,7 @@
         <v>73</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>2</v>
@@ -2135,12 +2127,12 @@
       <c r="A30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="10" t="s">
         <v>132</v>
       </c>
@@ -2148,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>2</v>
@@ -2165,10 +2157,10 @@
       <c r="A31" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="10" t="s">
         <v>129</v>
       </c>
@@ -2189,12 +2181,12 @@
       <c r="A32" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="10" t="s">
         <v>131</v>
       </c>
@@ -2202,7 +2194,7 @@
         <v>73</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>79</v>
@@ -2219,10 +2211,10 @@
       <c r="A33" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20" t="s">
         <v>130</v>
       </c>
       <c r="F33" s="10"/>
@@ -2243,10 +2235,10 @@
       <c r="A34" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20" t="s">
         <v>130</v>
       </c>
       <c r="F34" s="10"/>
@@ -2267,10 +2259,10 @@
       <c r="A35" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20" t="s">
         <v>129</v>
       </c>
       <c r="F35" s="10"/>
@@ -2291,12 +2283,12 @@
       <c r="A36" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20" t="s">
         <v>129</v>
       </c>
       <c r="F36" s="10"/>
@@ -2317,12 +2309,12 @@
       <c r="A37" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20" t="s">
         <v>129</v>
       </c>
       <c r="F37" s="10"/>
@@ -2343,12 +2335,12 @@
       <c r="A38" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20" t="s">
         <v>130</v>
       </c>
       <c r="F38" s="10"/>
@@ -2369,12 +2361,12 @@
       <c r="A39" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20" t="s">
         <v>131</v>
       </c>
       <c r="F39" s="10"/>
@@ -2395,12 +2387,12 @@
       <c r="A40" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20" t="s">
         <v>131</v>
       </c>
       <c r="F40" s="10"/>
@@ -2421,12 +2413,12 @@
       <c r="A41" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21" t="s">
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20" t="s">
         <v>131</v>
       </c>
       <c r="F41" s="10"/>
@@ -2434,7 +2426,7 @@
         <v>76</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>2</v>
@@ -2447,12 +2439,12 @@
       <c r="A42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21" t="s">
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20" t="s">
         <v>130</v>
       </c>
       <c r="F42" s="10"/>
@@ -2475,10 +2467,10 @@
       <c r="A43" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11" t="s">
         <v>76</v>
@@ -2497,12 +2489,12 @@
       <c r="A44" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21" t="s">
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20" t="s">
         <v>131</v>
       </c>
       <c r="F44" s="10"/>
@@ -2523,12 +2515,12 @@
       <c r="A45" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21" t="s">
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20" t="s">
         <v>154</v>
       </c>
       <c r="F45" s="10"/>
@@ -2549,12 +2541,12 @@
       <c r="A46" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21" t="s">
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20" t="s">
         <v>130</v>
       </c>
       <c r="F46" s="10"/>
@@ -2562,7 +2554,7 @@
         <v>76</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>89</v>
@@ -2575,12 +2567,12 @@
       <c r="A47" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20" t="s">
         <v>130</v>
       </c>
       <c r="F47" s="10"/>
@@ -2603,12 +2595,12 @@
       <c r="A48" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21" t="s">
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20" t="s">
         <v>154</v>
       </c>
       <c r="F48" s="10"/>
@@ -2629,12 +2621,12 @@
       <c r="A49" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21" t="s">
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20" t="s">
         <v>129</v>
       </c>
       <c r="F49" s="10"/>
@@ -2655,12 +2647,12 @@
       <c r="A50" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21" t="s">
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20" t="s">
         <v>129</v>
       </c>
       <c r="F50" s="10"/>
@@ -2679,12 +2671,12 @@
     </row>
     <row r="51" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
+        <v>162</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="10"/>
       <c r="G51" s="11" t="s">
         <v>75</v>
@@ -2703,12 +2695,12 @@
       <c r="A52" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21" t="s">
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20" t="s">
         <v>131</v>
       </c>
       <c r="F52" s="10"/>
@@ -2729,12 +2721,12 @@
       <c r="A53" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21" t="s">
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="10"/>
@@ -2757,12 +2749,12 @@
       <c r="A54" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21" t="s">
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20" t="s">
         <v>131</v>
       </c>
       <c r="F54" s="10"/>
@@ -2783,12 +2775,12 @@
       <c r="A55" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21" t="s">
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20" t="s">
         <v>130</v>
       </c>
       <c r="F55" s="10" t="s">
@@ -2814,9 +2806,9 @@
       <c r="B56" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21" t="s">
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20" t="s">
         <v>129</v>
       </c>
       <c r="F56" s="10"/>
@@ -2824,7 +2816,7 @@
         <v>75</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>94</v>
@@ -2837,10 +2829,10 @@
       <c r="A57" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20" t="s">
         <v>129</v>
       </c>
       <c r="F57" s="10"/>
@@ -2848,7 +2840,7 @@
         <v>75</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>122</v>
@@ -2861,12 +2853,12 @@
       <c r="A58" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21" t="s">
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20" t="s">
         <v>129</v>
       </c>
       <c r="F58" s="10"/>
@@ -2874,7 +2866,7 @@
         <v>78</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>1</v>
@@ -2887,10 +2879,10 @@
       <c r="A59" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21" t="s">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20" t="s">
         <v>130</v>
       </c>
       <c r="F59" s="10"/>
@@ -2911,12 +2903,12 @@
       <c r="A60" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21" t="s">
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20" t="s">
         <v>131</v>
       </c>
       <c r="F60" s="10"/>
@@ -2937,12 +2929,12 @@
       <c r="A61" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21" t="s">
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20" t="s">
         <v>131</v>
       </c>
       <c r="F61" s="10"/>
@@ -2963,12 +2955,12 @@
       <c r="A62" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21" t="s">
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20" t="s">
         <v>131</v>
       </c>
       <c r="F62" s="10"/>
@@ -2976,7 +2968,7 @@
         <v>76</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>2</v>
@@ -2991,21 +2983,21 @@
     </row>
     <row r="63" spans="1:12" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
+        <v>168</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
       <c r="F63" s="10"/>
       <c r="G63" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H63" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>107</v>
@@ -3017,10 +3009,10 @@
       <c r="A64" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20" t="s">
         <v>130</v>
       </c>
       <c r="F64" s="10"/>
@@ -3028,7 +3020,7 @@
         <v>76</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>2</v>
@@ -3041,12 +3033,12 @@
       <c r="A65" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21" t="s">
+      <c r="B65" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20" t="s">
         <v>130</v>
       </c>
       <c r="F65" s="10"/>
@@ -3067,10 +3059,10 @@
       <c r="A66" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="22"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
       <c r="F66" s="16" t="s">
         <v>130</v>
       </c>
@@ -3091,10 +3083,10 @@
       <c r="A67" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="22" t="s">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21" t="s">
         <v>132</v>
       </c>
       <c r="F67" s="16"/>
@@ -3121,10 +3113,10 @@
       <c r="A68" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21" t="s">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20" t="s">
         <v>132</v>
       </c>
       <c r="F68" s="10"/>
@@ -3145,10 +3137,10 @@
       <c r="A69" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="22" t="s">
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="21" t="s">
         <v>132</v>
       </c>
       <c r="F69" s="16"/>
@@ -3174,9 +3166,9 @@
       <c r="B70" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21" t="s">
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20" t="s">
         <v>132</v>
       </c>
       <c r="F70" s="10"/>
@@ -3202,9 +3194,9 @@
       <c r="B71" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21" t="s">
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20" t="s">
         <v>132</v>
       </c>
       <c r="F71" s="10"/>
@@ -3228,9 +3220,9 @@
         <v>53</v>
       </c>
       <c r="B72" s="9"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21" t="s">
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20" t="s">
         <v>132</v>
       </c>
       <c r="F72" s="10"/>

--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31EEF78-8914-4722-8084-2AE5290FBBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Cupboard Location" sheetId="2" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="178">
   <si>
     <t>Treat. Rm</t>
   </si>
@@ -558,13 +557,19 @@
   </si>
   <si>
     <t>Side Door (Rm901)</t>
+  </si>
+  <si>
+    <t>多用途室[pw:000]</t>
+  </si>
+  <si>
+    <t>多用途室</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,23 +939,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -986,23 +974,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1178,32 +1149,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A27" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="19.7" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="16" customWidth="1"/>
-    <col min="2" max="3" width="19.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="16" customWidth="1"/>
-    <col min="5" max="6" width="19.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="16" customWidth="1"/>
+    <col min="2" max="3" width="19.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="16" customWidth="1"/>
+    <col min="5" max="6" width="19.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48" style="17" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="37.25" style="17" customWidth="1"/>
+    <col min="10" max="10" width="37.75" style="17" customWidth="1"/>
     <col min="11" max="11" width="38" style="17" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="12" width="30.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -1241,7 +1212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
@@ -1267,7 +1238,7 @@
       <c r="K2" s="20"/>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>40</v>
       </c>
@@ -1289,7 +1260,7 @@
       <c r="K3" s="20"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>42</v>
       </c>
@@ -1313,7 +1284,7 @@
       <c r="K4" s="20"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>45</v>
       </c>
@@ -1337,7 +1308,7 @@
       <c r="K5" s="20"/>
       <c r="L5" s="25"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>47</v>
       </c>
@@ -1363,7 +1334,7 @@
       <c r="K6" s="20"/>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>48</v>
       </c>
@@ -1389,7 +1360,7 @@
       <c r="K7" s="20"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>49</v>
       </c>
@@ -1415,7 +1386,7 @@
       <c r="K8" s="20"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>50</v>
       </c>
@@ -1441,7 +1412,7 @@
       <c r="K9" s="20"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>51</v>
       </c>
@@ -1473,7 +1444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>55</v>
       </c>
@@ -1499,7 +1470,7 @@
       <c r="K11" s="20"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>56</v>
       </c>
@@ -1525,7 +1496,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
@@ -1561,7 +1532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>61</v>
       </c>
@@ -1585,7 +1556,7 @@
       <c r="K14" s="20"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>63</v>
       </c>
@@ -1609,7 +1580,7 @@
       <c r="K15" s="20"/>
       <c r="L15" s="25"/>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>66</v>
       </c>
@@ -1639,7 +1610,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>69</v>
       </c>
@@ -1663,7 +1634,7 @@
       <c r="K17" s="27"/>
       <c r="L17" s="25"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>72</v>
       </c>
@@ -1693,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>74</v>
       </c>
@@ -1717,7 +1688,7 @@
       <c r="K19" s="20"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A20" s="18" t="s">
         <v>77</v>
       </c>
@@ -1745,7 +1716,7 @@
       <c r="K20" s="20"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A21" s="18" t="s">
         <v>79</v>
       </c>
@@ -1769,7 +1740,7 @@
       <c r="K21" s="20"/>
       <c r="L21" s="25"/>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>81</v>
       </c>
@@ -1791,7 +1762,7 @@
       <c r="K22" s="20"/>
       <c r="L22" s="25"/>
     </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A23" s="18" t="s">
         <v>82</v>
       </c>
@@ -1815,7 +1786,7 @@
       <c r="K23" s="20"/>
       <c r="L23" s="25"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A24" s="18" t="s">
         <v>83</v>
       </c>
@@ -1841,7 +1812,7 @@
       <c r="K24" s="20"/>
       <c r="L24" s="25"/>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>84</v>
       </c>
@@ -1867,7 +1838,7 @@
       <c r="K25" s="20"/>
       <c r="L25" s="25"/>
     </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A26" s="18" t="s">
         <v>85</v>
       </c>
@@ -1893,7 +1864,7 @@
       <c r="K26" s="20"/>
       <c r="L26" s="25"/>
     </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A27" s="18" t="s">
         <v>87</v>
       </c>
@@ -1919,7 +1890,7 @@
       <c r="K27" s="20"/>
       <c r="L27" s="25"/>
     </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A28" s="28" t="s">
         <v>90</v>
       </c>
@@ -1945,7 +1916,7 @@
       <c r="K28" s="20"/>
       <c r="L28" s="25"/>
     </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A29" s="28" t="s">
         <v>92</v>
       </c>
@@ -1971,7 +1942,7 @@
       <c r="K29" s="20"/>
       <c r="L29" s="25"/>
     </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A30" s="28" t="s">
         <v>93</v>
       </c>
@@ -2001,7 +1972,7 @@
       </c>
       <c r="L30" s="25"/>
     </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A31" s="28" t="s">
         <v>97</v>
       </c>
@@ -2025,7 +1996,7 @@
       <c r="K31" s="20"/>
       <c r="L31" s="25"/>
     </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A32" s="28" t="s">
         <v>99</v>
       </c>
@@ -2055,7 +2026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A33" s="28" t="s">
         <v>102</v>
       </c>
@@ -2070,16 +2041,16 @@
         <v>103</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="25"/>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A34" s="28" t="s">
         <v>104</v>
       </c>
@@ -2103,7 +2074,7 @@
       <c r="K34" s="20"/>
       <c r="L34" s="25"/>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A35" s="28" t="s">
         <v>105</v>
       </c>
@@ -2127,7 +2098,7 @@
       <c r="K35" s="20"/>
       <c r="L35" s="25"/>
     </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A36" s="28" t="s">
         <v>107</v>
       </c>
@@ -2153,7 +2124,7 @@
       <c r="K36" s="20"/>
       <c r="L36" s="25"/>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A37" s="28" t="s">
         <v>108</v>
       </c>
@@ -2179,7 +2150,7 @@
       <c r="K37" s="20"/>
       <c r="L37" s="25"/>
     </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A38" s="28" t="s">
         <v>109</v>
       </c>
@@ -2205,7 +2176,7 @@
       <c r="K38" s="20"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A39" s="28" t="s">
         <v>111</v>
       </c>
@@ -2231,7 +2202,7 @@
       <c r="K39" s="20"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A40" s="28" t="s">
         <v>112</v>
       </c>
@@ -2257,7 +2228,7 @@
       <c r="K40" s="20"/>
       <c r="L40" s="25"/>
     </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A41" s="28" t="s">
         <v>113</v>
       </c>
@@ -2283,7 +2254,7 @@
       <c r="K41" s="20"/>
       <c r="L41" s="25"/>
     </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A42" s="28" t="s">
         <v>115</v>
       </c>
@@ -2311,7 +2282,7 @@
       <c r="K42" s="20"/>
       <c r="L42" s="25"/>
     </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A43" s="28" t="s">
         <v>117</v>
       </c>
@@ -2337,7 +2308,7 @@
       <c r="K43" s="20"/>
       <c r="L43" s="25"/>
     </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A44" s="28" t="s">
         <v>118</v>
       </c>
@@ -2363,7 +2334,7 @@
       <c r="K44" s="20"/>
       <c r="L44" s="25"/>
     </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A45" s="28" t="s">
         <v>120</v>
       </c>
@@ -2389,7 +2360,7 @@
       <c r="K45" s="20"/>
       <c r="L45" s="25"/>
     </row>
-    <row r="46" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A46" s="28" t="s">
         <v>122</v>
       </c>
@@ -2415,7 +2386,7 @@
       <c r="K46" s="20"/>
       <c r="L46" s="25"/>
     </row>
-    <row r="47" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A47" s="28" t="s">
         <v>124</v>
       </c>
@@ -2443,7 +2414,7 @@
       <c r="K47" s="20"/>
       <c r="L47" s="25"/>
     </row>
-    <row r="48" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A48" s="28" t="s">
         <v>126</v>
       </c>
@@ -2465,7 +2436,7 @@
       <c r="K48" s="20"/>
       <c r="L48" s="25"/>
     </row>
-    <row r="49" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A49" s="28" t="s">
         <v>127</v>
       </c>
@@ -2491,7 +2462,7 @@
       <c r="K49" s="20"/>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A50" s="28" t="s">
         <v>128</v>
       </c>
@@ -2517,7 +2488,7 @@
       <c r="K50" s="20"/>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A51" s="28" t="s">
         <v>130</v>
       </c>
@@ -2539,7 +2510,7 @@
       <c r="K51" s="20"/>
       <c r="L51" s="25"/>
     </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A52" s="28" t="s">
         <v>132</v>
       </c>
@@ -2565,7 +2536,7 @@
       <c r="K52" s="20"/>
       <c r="L52" s="25"/>
     </row>
-    <row r="53" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A53" s="28" t="s">
         <v>133</v>
       </c>
@@ -2593,7 +2564,7 @@
       <c r="K53" s="20"/>
       <c r="L53" s="25"/>
     </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A54" s="28" t="s">
         <v>134</v>
       </c>
@@ -2619,7 +2590,7 @@
       <c r="K54" s="20"/>
       <c r="L54" s="25"/>
     </row>
-    <row r="55" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A55" s="28" t="s">
         <v>137</v>
       </c>
@@ -2638,16 +2609,16 @@
         <v>103</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
       <c r="L55" s="25"/>
     </row>
-    <row r="56" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A56" s="18" t="s">
         <v>139</v>
       </c>
@@ -2673,7 +2644,7 @@
       <c r="K56" s="20"/>
       <c r="L56" s="25"/>
     </row>
-    <row r="57" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A57" s="28" t="s">
         <v>142</v>
       </c>
@@ -2697,7 +2668,7 @@
       <c r="K57" s="20"/>
       <c r="L57" s="25"/>
     </row>
-    <row r="58" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A58" s="28" t="s">
         <v>145</v>
       </c>
@@ -2723,7 +2694,7 @@
       <c r="K58" s="20"/>
       <c r="L58" s="25"/>
     </row>
-    <row r="59" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A59" s="28" t="s">
         <v>147</v>
       </c>
@@ -2747,7 +2718,7 @@
       <c r="K59" s="20"/>
       <c r="L59" s="25"/>
     </row>
-    <row r="60" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A60" s="28" t="s">
         <v>149</v>
       </c>
@@ -2773,7 +2744,7 @@
       <c r="K60" s="20"/>
       <c r="L60" s="25"/>
     </row>
-    <row r="61" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A61" s="28" t="s">
         <v>151</v>
       </c>
@@ -2799,7 +2770,7 @@
       <c r="K61" s="20"/>
       <c r="L61" s="25"/>
     </row>
-    <row r="62" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A62" s="28" t="s">
         <v>153</v>
       </c>
@@ -2829,7 +2800,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A63" s="28" t="s">
         <v>156</v>
       </c>
@@ -2853,7 +2824,7 @@
       <c r="K63" s="20"/>
       <c r="L63" s="25"/>
     </row>
-    <row r="64" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A64" s="28" t="s">
         <v>159</v>
       </c>
@@ -2877,7 +2848,7 @@
       <c r="K64" s="20"/>
       <c r="L64" s="25"/>
     </row>
-    <row r="65" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A65" s="28" t="s">
         <v>161</v>
       </c>
@@ -2903,7 +2874,7 @@
       <c r="K65" s="20"/>
       <c r="L65" s="25"/>
     </row>
-    <row r="66" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A66" s="28" t="s">
         <v>162</v>
       </c>
@@ -2927,7 +2898,7 @@
       <c r="K66" s="20"/>
       <c r="L66" s="25"/>
     </row>
-    <row r="67" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A67" s="28" t="s">
         <v>164</v>
       </c>
@@ -2957,7 +2928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A68" s="28" t="s">
         <v>167</v>
       </c>
@@ -2981,7 +2952,7 @@
       <c r="K68" s="20"/>
       <c r="L68" s="25"/>
     </row>
-    <row r="69" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A69" s="28" t="s">
         <v>168</v>
       </c>
@@ -3007,7 +2978,7 @@
       <c r="K69" s="20"/>
       <c r="L69" s="25"/>
     </row>
-    <row r="70" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A70" s="28" t="s">
         <v>169</v>
       </c>
@@ -3035,7 +3006,7 @@
       <c r="K70" s="20"/>
       <c r="L70" s="25"/>
     </row>
-    <row r="71" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A71" s="28" t="s">
         <v>171</v>
       </c>
@@ -3063,7 +3034,7 @@
       <c r="K71" s="20"/>
       <c r="L71" s="25"/>
     </row>
-    <row r="72" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1">
       <c r="A72" s="28" t="s">
         <v>174</v>
       </c>
@@ -3087,7 +3058,7 @@
       <c r="K72" s="20"/>
       <c r="L72" s="25"/>
     </row>
-    <row r="73" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="19.7" customHeight="1">
       <c r="A73" s="15"/>
       <c r="B73" s="9"/>
       <c r="C73" s="14"/>
@@ -3101,7 +3072,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="19.7" customHeight="1">
       <c r="A74" s="15"/>
       <c r="B74" s="9"/>
       <c r="C74" s="14"/>
@@ -3115,7 +3086,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="19.7" customHeight="1">
       <c r="A75" s="15"/>
       <c r="B75" s="9"/>
       <c r="C75" s="14"/>
@@ -3129,7 +3100,7 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="19.7" customHeight="1">
       <c r="A76" s="15"/>
       <c r="B76" s="9"/>
       <c r="C76" s="14"/>
@@ -3143,7 +3114,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="19.7" customHeight="1">
       <c r="A77" s="15"/>
       <c r="B77" s="9"/>
       <c r="C77" s="14"/>
@@ -3157,7 +3128,7 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="19.7" customHeight="1">
       <c r="A78" s="15"/>
       <c r="B78" s="9"/>
       <c r="C78" s="14"/>
@@ -3171,7 +3142,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="19.7" customHeight="1">
       <c r="A79" s="15"/>
       <c r="B79" s="9"/>
       <c r="C79" s="14"/>
@@ -3185,7 +3156,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="19.7" customHeight="1">
       <c r="A80" s="15"/>
       <c r="B80" s="9"/>
       <c r="C80" s="14"/>
@@ -3199,7 +3170,7 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="19.7" customHeight="1">
       <c r="A81" s="15"/>
       <c r="B81" s="9"/>
       <c r="C81" s="14"/>
@@ -3213,7 +3184,7 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="19.7" customHeight="1">
       <c r="A82" s="15"/>
       <c r="B82" s="9"/>
       <c r="C82" s="14"/>
@@ -3227,7 +3198,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="19.7" customHeight="1">
       <c r="A83" s="15"/>
       <c r="B83" s="9"/>
       <c r="C83" s="14"/>
@@ -3241,7 +3212,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="19.7" customHeight="1">
       <c r="A84" s="15"/>
       <c r="B84" s="9"/>
       <c r="C84" s="14"/>
@@ -3255,7 +3226,7 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="19.7" customHeight="1">
       <c r="A85" s="15"/>
       <c r="B85" s="9"/>
       <c r="C85" s="14"/>
@@ -3269,7 +3240,7 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="19.7" customHeight="1">
       <c r="A86" s="15"/>
       <c r="B86" s="9"/>
       <c r="C86" s="14"/>
@@ -3286,7 +3257,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F&amp;RPrint Date:&amp;D</oddHeader>
     <oddFooter>&amp;L&amp;Z&amp;F</oddFooter>

--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165D8DF3-C5B1-4CD1-978D-28316E2659BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D06893-F8E7-471F-893A-F7223AD2E367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,11 +14,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cupboard Location'!$A$1:$L$72</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="179">
   <si>
     <t>Treat. Rm</t>
   </si>
@@ -101,673 +106,467 @@
     <t>Treat. Rm [000]</t>
   </si>
   <si>
+    <t>多用途室</t>
+  </si>
+  <si>
     <t>Ward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>THUR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Delivery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cupboard [Password]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fridge [Password]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Conc. Elyt. Cupboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Remark (Scanning)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Remark (Delivery)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多用途室</t>
   </si>
   <si>
     <t>ABCD LOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ABCD UP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Middle of the ward, Opposite to the sink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm[1234]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nursing Station</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Treat. Rm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nursing Station [匙掛在櫃右邊]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>藥櫃右邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Gelofusin: Corridor (Right, before Nursing stat.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>潔物房 A0905房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">潔物房 A0905房 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>藥櫃左邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scanner M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scanner L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nursing Station旁簾後</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ALG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm [C0981]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scanner O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Corridor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Behind nursing station的Treat. Rm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>雪櫃左邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回藥於窗邊有鎖櫃桶內(問姑娘開櫃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直行到尾轉左到尾再轉左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CAPD Rm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">B6 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>走廊尾右邊 [000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2個藥櫃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nursing Station 對面 [13590]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9號房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lactation Rm [借key]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冇雪櫃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>潔物房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C4 (C4HD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm [138]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm [1258]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm [借key]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm[5020]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm [1238]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>洗手盤右邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CHLO2D 在洗手盤下的火酒櫃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>無雪貨 Items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Next to Nursing Station [000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Behind Nursing Station </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EFGH UP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFGH LOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm [press key]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm [123]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm [911]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>藥櫃斜對面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直行最尾轉右(TR RM)[借匙]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直行最尾轉右(TR RM)</t>
   </si>
   <si>
     <t>G1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1號士多房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm[借匙]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm[502]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>洗手盤下方的抽屜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>G2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Equipment Rm [000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm [CY1389]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm [借匙]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>多用途室</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[pw:000]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多用途室[pw:000]</t>
   </si>
   <si>
     <t>H2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直行最尾轉右房 [2678]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直行最尾轉右房 [1234]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>H3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直行最尾轉右房[4483]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直行最尾轉右房 [4483]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>H4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直行最尾轉右房 [000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>H5 (EYE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直行最尾轉右房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>H6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm(直行右尾2房)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>H7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直行最尾轉右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>H8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm (借匙)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treat. Rm (暫借G8雪櫃)</t>
   </si>
   <si>
     <t>CHLO2D stock at Treat. Rm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>H9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直行最尾轉右(19-22床)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm(share w/H9D)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>H9D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>被服房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>H10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scanner N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>M5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm [1678]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R1/RTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R Block</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直行最尾轉右房 (Rm106)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Door: Long Key </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R2 &amp; R2OT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm (Rm705)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm (Rm805)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Treat. Rm (Rm805) [1234]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R9A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Side Door (Rm901)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,13 +587,6 @@
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -1042,10 +834,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1391,8 +1183,8 @@
   </sheetPr>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A56" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1412,40 +1204,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -1538,7 +1330,7 @@
         <v>47</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
@@ -1546,7 +1338,7 @@
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="6" t="s">
@@ -1561,7 +1353,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>0</v>
@@ -1572,7 +1364,7 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="6" t="s">
@@ -1587,10 +1379,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
@@ -1598,7 +1390,7 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="6" t="s">
@@ -1613,10 +1405,10 @@
         <v>40</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
@@ -1624,7 +1416,7 @@
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="6" t="s">
@@ -1642,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -1650,7 +1442,7 @@
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="6" t="s">
@@ -1665,24 +1457,24 @@
         <v>42</v>
       </c>
       <c r="H10" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17" t="s">
+      <c r="K10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="L10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="6" t="s">
@@ -1697,7 +1489,7 @@
         <v>42</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>1</v>
@@ -1708,7 +1500,7 @@
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="6"/>
@@ -1721,13 +1513,13 @@
         <v>42</v>
       </c>
       <c r="H12" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="J12" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="21"/>
@@ -1740,13 +1532,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>7</v>
@@ -1755,7 +1547,7 @@
         <v>42</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>12</v>
@@ -1770,7 +1562,7 @@
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="6"/>
@@ -1786,7 +1578,7 @@
         <v>47</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -1794,23 +1586,23 @@
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="19" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -1818,7 +1610,7 @@
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="6" t="s">
@@ -1833,22 +1625,22 @@
         <v>40</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>47</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="6"/>
@@ -1861,10 +1653,10 @@
         <v>40</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="23"/>
@@ -1872,7 +1664,7 @@
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="6" t="s">
@@ -1887,14 +1679,14 @@
         <v>42</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>47</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="L18" s="17" t="s">
         <v>4</v>
@@ -1902,7 +1694,7 @@
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="6"/>
@@ -1915,10 +1707,10 @@
         <v>42</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
@@ -1926,7 +1718,7 @@
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="6" t="s">
@@ -1941,36 +1733,36 @@
         <v>42</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="19" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
@@ -1978,7 +1770,7 @@
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="6"/>
@@ -1989,10 +1781,10 @@
         <v>42</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
@@ -2000,7 +1792,7 @@
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="6"/>
@@ -2016,7 +1808,7 @@
         <v>47</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
@@ -2024,7 +1816,7 @@
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="6" t="s">
@@ -2039,10 +1831,10 @@
         <v>40</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
@@ -2050,7 +1842,7 @@
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="6" t="s">
@@ -2065,10 +1857,10 @@
         <v>40</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
@@ -2076,7 +1868,7 @@
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="19" t="s">
@@ -2091,10 +1883,10 @@
         <v>40</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
@@ -2102,7 +1894,7 @@
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="6" t="s">
@@ -2117,10 +1909,10 @@
         <v>42</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
@@ -2128,7 +1920,7 @@
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
@@ -2143,10 +1935,10 @@
         <v>42</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -2154,7 +1946,7 @@
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
@@ -2169,10 +1961,10 @@
         <v>42</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
@@ -2180,7 +1972,7 @@
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
@@ -2195,22 +1987,22 @@
         <v>42</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L30" s="21"/>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2226,7 +2018,7 @@
         <v>14</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
@@ -2234,7 +2026,7 @@
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
@@ -2249,10 +2041,10 @@
         <v>42</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
@@ -2264,7 +2056,7 @@
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2274,13 +2066,13 @@
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
@@ -2288,7 +2080,7 @@
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2298,13 +2090,13 @@
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
@@ -2312,7 +2104,7 @@
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2322,13 +2114,13 @@
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="20" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H35" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -2336,7 +2128,7 @@
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>6</v>
@@ -2348,13 +2140,13 @@
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="20" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
@@ -2362,7 +2154,7 @@
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>7</v>
@@ -2374,13 +2166,13 @@
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="20" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
@@ -2388,7 +2180,7 @@
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>7</v>
@@ -2400,13 +2192,13 @@
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="20" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
@@ -2414,7 +2206,7 @@
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>7</v>
@@ -2426,10 +2218,10 @@
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I39" s="17" t="s">
         <v>47</v>
@@ -2440,7 +2232,7 @@
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>7</v>
@@ -2452,13 +2244,13 @@
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>26</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
@@ -2466,7 +2258,7 @@
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>8</v>
@@ -2478,13 +2270,13 @@
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
@@ -2492,7 +2284,7 @@
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>8</v>
@@ -2504,23 +2296,23 @@
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K42" s="17"/>
       <c r="L42" s="21"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>8</v>
@@ -2532,13 +2324,13 @@
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
@@ -2546,18 +2338,22 @@
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="F44" s="19"/>
       <c r="G44" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>25</v>
@@ -2568,22 +2364,22 @@
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="20" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I45" s="17" t="s">
         <v>20</v>
@@ -2594,7 +2390,7 @@
     </row>
     <row r="46" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>8</v>
@@ -2606,10 +2402,10 @@
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I46" s="17" t="s">
         <v>47</v>
@@ -2620,7 +2416,7 @@
     </row>
     <row r="47" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>8</v>
@@ -2632,38 +2428,34 @@
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="21"/>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="E48" s="6"/>
       <c r="F48" s="19"/>
       <c r="G48" s="20" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>21</v>
@@ -2674,7 +2466,7 @@
     </row>
     <row r="49" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>6</v>
@@ -2686,13 +2478,13 @@
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="20" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
@@ -2700,7 +2492,7 @@
     </row>
     <row r="50" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>7</v>
@@ -2712,13 +2504,13 @@
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="20" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
@@ -2726,7 +2518,7 @@
     </row>
     <row r="51" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2734,13 +2526,13 @@
       <c r="E51" s="6"/>
       <c r="F51" s="19"/>
       <c r="G51" s="20" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
@@ -2748,7 +2540,7 @@
     </row>
     <row r="52" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>7</v>
@@ -2760,13 +2552,13 @@
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
@@ -2774,7 +2566,7 @@
     </row>
     <row r="53" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>7</v>
@@ -2786,13 +2578,13 @@
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H53" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J53" s="17" t="s">
         <v>47</v>
@@ -2802,7 +2594,7 @@
     </row>
     <row r="54" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>8</v>
@@ -2814,13 +2606,13 @@
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
@@ -2828,7 +2620,7 @@
     </row>
     <row r="55" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>8</v>
@@ -2839,16 +2631,16 @@
         <v>7</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I55" s="28" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
@@ -2856,7 +2648,7 @@
     </row>
     <row r="56" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>6</v>
@@ -2868,13 +2660,13 @@
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="20" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
@@ -2882,7 +2674,7 @@
     </row>
     <row r="57" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2892,13 +2684,13 @@
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="20" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
@@ -2906,7 +2698,7 @@
     </row>
     <row r="58" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>7</v>
@@ -2921,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I58" s="17" t="s">
         <v>0</v>
@@ -2932,7 +2724,7 @@
     </row>
     <row r="59" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2945,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>19</v>
@@ -2956,7 +2748,7 @@
     </row>
     <row r="60" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>7</v>
@@ -2968,13 +2760,13 @@
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
@@ -2982,7 +2774,7 @@
     </row>
     <row r="61" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="24" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>7</v>
@@ -2994,13 +2786,13 @@
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
@@ -3008,7 +2800,7 @@
     </row>
     <row r="62" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>8</v>
@@ -3020,25 +2812,25 @@
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="J62" s="17"/>
       <c r="K62" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -3046,23 +2838,23 @@
       <c r="E63" s="6"/>
       <c r="F63" s="19"/>
       <c r="G63" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K63" s="17"/>
       <c r="L63" s="21"/>
     </row>
     <row r="64" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -3072,13 +2864,13 @@
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
@@ -3086,10 +2878,10 @@
     </row>
     <row r="65" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -3098,7 +2890,7 @@
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H65" s="16" t="s">
         <v>23</v>
@@ -3112,7 +2904,7 @@
     </row>
     <row r="66" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -3128,7 +2920,7 @@
         <v>5</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
@@ -3136,7 +2928,7 @@
     </row>
     <row r="67" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -3146,19 +2938,19 @@
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K67" s="17" t="s">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="L67" s="21" t="s">
         <v>3</v>
@@ -3166,7 +2958,7 @@
     </row>
     <row r="68" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -3176,13 +2968,13 @@
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H68" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
@@ -3190,7 +2982,7 @@
     </row>
     <row r="69" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="24" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -3200,7 +2992,7 @@
       </c>
       <c r="F69" s="25"/>
       <c r="G69" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H69" s="16" t="s">
         <v>16</v>
@@ -3216,7 +3008,7 @@
     </row>
     <row r="70" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>6</v>
@@ -3228,23 +3020,23 @@
       </c>
       <c r="F70" s="19"/>
       <c r="G70" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K70" s="17"/>
       <c r="L70" s="21"/>
     </row>
     <row r="71" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>6</v>
@@ -3256,23 +3048,23 @@
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H71" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H71" s="16" t="s">
-        <v>183</v>
-      </c>
       <c r="I71" s="17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K71" s="17"/>
       <c r="L71" s="21"/>
     </row>
     <row r="72" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="6"/>
@@ -3282,10 +3074,10 @@
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I72" s="17" t="s">
         <v>18</v>

--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D06893-F8E7-471F-893A-F7223AD2E367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3339C5-6877-4B17-855A-6F3FE4967A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="178">
   <si>
     <t>Treat. Rm</t>
   </si>
@@ -424,9 +424,6 @@
     <t>G5</t>
   </si>
   <si>
-    <t>Treat. Rm [CY1389]</t>
-  </si>
-  <si>
     <t>G6</t>
   </si>
   <si>
@@ -445,9 +442,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>多用途室[pw:000]</t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
@@ -560,6 +554,32 @@
   </si>
   <si>
     <t>Side Door (Rm901)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多用途室</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[pw:000]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -760,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -783,9 +803,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -807,7 +824,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,8 +851,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1183,8 +1212,8 @@
   </sheetPr>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A45" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection sqref="A1:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1203,1888 +1232,1888 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="18"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="21"/>
+      <c r="H2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="18"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="21"/>
+      <c r="H3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="18"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="21"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="18"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="20" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="21"/>
+      <c r="I5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="18"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="19" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="21"/>
+      <c r="H6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="18"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="21"/>
+      <c r="H7" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="18"/>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="19" t="s">
+      <c r="C8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="21"/>
+      <c r="H8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="18"/>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="19" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="21"/>
+      <c r="H9" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="18"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="19" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17" t="s">
+      <c r="I10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="18"/>
-      <c r="C11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="19" t="s">
+      <c r="C11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17" t="s">
+      <c r="H11" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="21"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="18"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="19" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="21"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="20" t="s">
+      <c r="F13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17" t="s">
+      <c r="J13" s="16"/>
+      <c r="K13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="18"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="19" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="21"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="19" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="21"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="20" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="21" t="s">
+      <c r="K16" s="16"/>
+      <c r="L16" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="18"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="19" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="21"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="19" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17" t="s">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="18"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="19" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="21"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="19" t="s">
+      <c r="C20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="21"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="18"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="19" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="21"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="21"/>
+      <c r="H22" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="18"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="20" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="21"/>
+      <c r="I23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="19" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="21"/>
+      <c r="H24" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B25" s="18"/>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="19" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="21"/>
+      <c r="H25" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="22"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="19" t="s">
+      <c r="C26" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="21"/>
+      <c r="I26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B27" s="18"/>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="19" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="21"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="22"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="19" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="21"/>
+      <c r="I28" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="22"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="19" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="21"/>
+      <c r="H29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="22"/>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="19" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="17" t="s">
+      <c r="I30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="L30" s="21"/>
+      <c r="L30" s="22"/>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="19" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="21"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="19" t="s">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17" t="s">
+      <c r="J32" s="16"/>
+      <c r="K32" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="21" t="s">
+      <c r="L32" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="21"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="22"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H34" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="21"/>
+      <c r="H34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="22"/>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20" t="s">
+      <c r="F35" s="20"/>
+      <c r="G35" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="21"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="22"/>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20" t="s">
+      <c r="F36" s="20"/>
+      <c r="G36" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="21"/>
+      <c r="H36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="22"/>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
+      <c r="B37" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20" t="s">
+      <c r="F37" s="20"/>
+      <c r="G37" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="21"/>
+      <c r="H37" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="22"/>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20" t="s">
+      <c r="B38" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="I38" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="21"/>
+      <c r="I38" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="22"/>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
+      <c r="B39" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20" t="s">
+      <c r="F39" s="20"/>
+      <c r="G39" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H39" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="17" t="s">
+      <c r="H39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="21"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="22"/>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
+      <c r="B40" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="20" t="s">
+      <c r="F40" s="20"/>
+      <c r="G40" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I40" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="21"/>
+      <c r="I40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="22"/>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20" t="s">
+      <c r="F41" s="20"/>
+      <c r="G41" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="I41" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="21"/>
+      <c r="I41" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="22"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J42" s="17" t="s">
+      <c r="H42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="K42" s="17"/>
-      <c r="L42" s="21"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="22"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20" t="s">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H43" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="21"/>
+      <c r="H43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="22"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="20" t="s">
+      <c r="F44" s="20"/>
+      <c r="G44" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="21"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="22"/>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20" t="s">
+      <c r="F45" s="20"/>
+      <c r="G45" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="I45" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="21"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="22"/>
     </row>
     <row r="46" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20" t="s">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="21"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="22"/>
     </row>
     <row r="47" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="20" t="s">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I47" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="17" t="s">
+      <c r="I47" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="K47" s="17"/>
-      <c r="L47" s="21"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="22"/>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="20" t="s">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="17" t="s">
+      <c r="H48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="21"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="22"/>
     </row>
     <row r="49" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6" t="s">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="20" t="s">
+      <c r="F49" s="20"/>
+      <c r="G49" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="21"/>
+      <c r="H49" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="22"/>
     </row>
     <row r="50" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
+      <c r="B50" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20" t="s">
+      <c r="F50" s="20"/>
+      <c r="G50" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I50" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="21"/>
+      <c r="I50" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="22"/>
     </row>
     <row r="51" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="20" t="s">
+      <c r="B51" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="22"/>
+    </row>
+    <row r="52" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="I51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="21"/>
-    </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="22"/>
+    </row>
+    <row r="53" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="s">
+      <c r="B53" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="20" t="s">
+      <c r="F53" s="20"/>
+      <c r="G53" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H52" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="21"/>
-    </row>
-    <row r="53" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
+      <c r="H53" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" s="16"/>
+      <c r="L53" s="22"/>
+    </row>
+    <row r="54" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
+      <c r="B54" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="20" t="s">
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="20"/>
+      <c r="G54" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H53" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="K53" s="17"/>
-      <c r="L53" s="21"/>
-    </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
+      <c r="H54" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="I54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="22"/>
+    </row>
+    <row r="55" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20" t="s">
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G55" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H54" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="I54" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="21"/>
-    </row>
-    <row r="55" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="19" t="s">
+      <c r="H55" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="I55" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="22"/>
+    </row>
+    <row r="56" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H55" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="21"/>
-    </row>
-    <row r="56" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6" t="s">
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="20" t="s">
+      <c r="F56" s="20"/>
+      <c r="G56" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="22"/>
+    </row>
+    <row r="57" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="21"/>
-    </row>
-    <row r="57" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="24" t="s">
+      <c r="I57" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="22"/>
+    </row>
+    <row r="58" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="20" t="s">
+      <c r="F58" s="20"/>
+      <c r="G58" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H57" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="I57" s="17" t="s">
+      <c r="H58" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="21"/>
-    </row>
-    <row r="58" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
+      <c r="I58" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="22"/>
+    </row>
+    <row r="59" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="19"/>
-      <c r="G58" s="20" t="s">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H59" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="I58" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="21"/>
-    </row>
-    <row r="59" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="s">
+      <c r="I59" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="15"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="22"/>
+    </row>
+    <row r="60" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="16" t="s">
+      <c r="B60" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="I59" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" s="16"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="21"/>
-    </row>
-    <row r="60" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
+      <c r="I60" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="22"/>
+    </row>
+    <row r="61" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6" t="s">
+      <c r="B61" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="19"/>
-      <c r="G60" s="20" t="s">
+      <c r="F61" s="20"/>
+      <c r="G61" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H61" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="I60" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="21"/>
-    </row>
-    <row r="61" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="s">
+      <c r="I61" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="22"/>
+    </row>
+    <row r="62" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6" t="s">
+      <c r="B62" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="20" t="s">
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H62" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="I61" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="21"/>
-    </row>
-    <row r="62" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
+      <c r="I62" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="J62" s="16"/>
+      <c r="K62" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L62" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K63" s="16"/>
+      <c r="L63" s="22"/>
+    </row>
+    <row r="64" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="22"/>
+    </row>
+    <row r="65" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20" t="s">
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H62" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="I62" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="L62" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="J63" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K63" s="17"/>
-      <c r="L63" s="21"/>
-    </row>
-    <row r="64" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H64" s="16" t="s">
+      <c r="H65" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="22"/>
+    </row>
+    <row r="66" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="I64" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="21"/>
-    </row>
-    <row r="65" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="24" t="s">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="21"/>
-    </row>
-    <row r="66" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="24" t="s">
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="22"/>
+    </row>
+    <row r="67" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="16" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="27"/>
+      <c r="G67" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="21"/>
-    </row>
-    <row r="67" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="24" t="s">
+      <c r="H67" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="10" t="s">
+      <c r="I67" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L67" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="25"/>
-      <c r="G67" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="H67" s="16" t="s">
+      <c r="F68" s="20"/>
+      <c r="G68" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="22"/>
+    </row>
+    <row r="69" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="I67" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="K67" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L67" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="24" t="s">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="27"/>
+      <c r="G69" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="16"/>
+      <c r="L69" s="22"/>
+    </row>
+    <row r="70" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="25" t="s">
         <v>170</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="19"/>
-      <c r="G68" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="21"/>
-    </row>
-    <row r="69" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" s="17"/>
-      <c r="L69" s="21"/>
-    </row>
-    <row r="70" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="24" t="s">
-        <v>172</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6" t="s">
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="19"/>
-      <c r="G70" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="I70" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="J70" s="17" t="s">
+      <c r="F70" s="20"/>
+      <c r="G70" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J70" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="K70" s="17"/>
-      <c r="L70" s="21"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="22"/>
     </row>
     <row r="71" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="24" t="s">
-        <v>174</v>
+      <c r="A71" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6" t="s">
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="19"/>
-      <c r="G71" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="H71" s="16" t="s">
+      <c r="F71" s="20"/>
+      <c r="G71" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K71" s="16"/>
+      <c r="L71" s="22"/>
+    </row>
+    <row r="72" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="I71" s="17" t="s">
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="20"/>
+      <c r="G72" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H72" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="J71" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K71" s="17"/>
-      <c r="L71" s="21"/>
-    </row>
-    <row r="72" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="19"/>
-      <c r="G72" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="I72" s="17" t="s">
+      <c r="I72" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="21"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="22"/>
     </row>
     <row r="73" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>

--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3339C5-6877-4B17-855A-6F3FE4967A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF4EFC6-58FA-4E18-9E6D-9A782800889C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="178">
   <si>
     <t>Treat. Rm</t>
   </si>
@@ -780,25 +780,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -827,6 +812,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -858,6 +844,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1212,2029 +1201,2031 @@
   </sheetPr>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A45" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection sqref="A1:L72"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection sqref="A1:L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="8" customWidth="1"/>
-    <col min="2" max="3" width="19.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="8" customWidth="1"/>
-    <col min="5" max="6" width="19.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48" style="9" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="38" style="9" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48" style="4" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="38" style="4" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="22"/>
+      <c r="H2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="22"/>
+      <c r="H3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="22"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="22"/>
+      <c r="I5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="22"/>
+      <c r="H6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="22"/>
+      <c r="H7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="22"/>
+      <c r="H8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="22"/>
+      <c r="H9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16" t="s">
+      <c r="I10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="22"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="22"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="22"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="22"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="21" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="22" t="s">
+      <c r="K16" s="11"/>
+      <c r="L16" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="22"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16" t="s">
+      <c r="J18" s="11"/>
+      <c r="K18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="22"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="22"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="18"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="22"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="18"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="22"/>
+      <c r="H22" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="18"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="21" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="22"/>
+      <c r="I23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="18"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="22"/>
+      <c r="H24" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="18"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="22"/>
+      <c r="H25" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="22"/>
+      <c r="I26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="22"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="22"/>
+      <c r="I28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="22"/>
+      <c r="H29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="16" t="s">
+      <c r="I30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L30" s="22"/>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="22"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16" t="s">
+      <c r="J32" s="11"/>
+      <c r="K32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="22" t="s">
+      <c r="L32" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="22"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H34" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="22"/>
+      <c r="H34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="18"/>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21" t="s">
+      <c r="F35" s="16"/>
+      <c r="G35" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="22"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="18"/>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21" t="s">
+      <c r="F36" s="16"/>
+      <c r="G36" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="22"/>
+      <c r="H36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="18"/>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19" t="s">
+      <c r="B37" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="22"/>
+      <c r="H37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="18"/>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21" t="s">
+      <c r="B38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I38" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="22"/>
+      <c r="I38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="18"/>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19" t="s">
+      <c r="B39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H39" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="16" t="s">
+      <c r="H39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="22"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="18"/>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19" t="s">
+      <c r="B40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I40" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="22"/>
+      <c r="I40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="18"/>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21" t="s">
+      <c r="F41" s="16"/>
+      <c r="G41" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I41" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="22"/>
+      <c r="I41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="18"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J42" s="16" t="s">
+      <c r="H42" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K42" s="16"/>
-      <c r="L42" s="22"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="18"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H43" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="22"/>
+      <c r="H43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="18"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21" t="s">
+      <c r="F44" s="16"/>
+      <c r="G44" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="22"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="18"/>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21" t="s">
+      <c r="F45" s="16"/>
+      <c r="G45" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="22"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="18"/>
     </row>
     <row r="46" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21" t="s">
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="22"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="18"/>
     </row>
     <row r="47" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="21" t="s">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="I47" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="16" t="s">
+      <c r="I47" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="K47" s="16"/>
-      <c r="L47" s="22"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="18"/>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21" t="s">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="16" t="s">
+      <c r="H48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="22"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="18"/>
     </row>
     <row r="49" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19" t="s">
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21" t="s">
+      <c r="F49" s="16"/>
+      <c r="G49" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="22"/>
+      <c r="H49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="18"/>
     </row>
     <row r="50" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19" t="s">
+      <c r="B50" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="21" t="s">
+      <c r="F50" s="16"/>
+      <c r="G50" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="I50" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="22"/>
+      <c r="I50" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="18"/>
     </row>
     <row r="51" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="20"/>
-      <c r="G51" s="21" t="s">
+      <c r="B51" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="22"/>
+      <c r="H51" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="18"/>
     </row>
     <row r="52" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="21" t="s">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="22"/>
+      <c r="H52" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="18"/>
     </row>
     <row r="53" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19" t="s">
+      <c r="B53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21" t="s">
+      <c r="F53" s="16"/>
+      <c r="G53" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I53" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J53" s="16" t="s">
+      <c r="I53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K53" s="16"/>
-      <c r="L53" s="22"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="18"/>
     </row>
     <row r="54" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19" t="s">
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="21" t="s">
+      <c r="F54" s="16"/>
+      <c r="G54" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I54" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="22"/>
+      <c r="I54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="18"/>
     </row>
     <row r="55" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="20" t="s">
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G55" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H55" s="30" t="s">
+      <c r="H55" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="I55" s="31" t="s">
+      <c r="I55" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="22"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="18"/>
     </row>
     <row r="56" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19" t="s">
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="21" t="s">
+      <c r="F56" s="16"/>
+      <c r="G56" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="29" t="s">
+      <c r="H56" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="I56" s="16" t="s">
+      <c r="I56" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="22"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="18"/>
     </row>
     <row r="57" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19" t="s">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="21" t="s">
+      <c r="F57" s="16"/>
+      <c r="G57" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I57" s="16" t="s">
+      <c r="I57" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="22"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="18"/>
     </row>
     <row r="58" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19" t="s">
+      <c r="B58" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21" t="s">
+      <c r="F58" s="16"/>
+      <c r="G58" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="I58" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="22"/>
+      <c r="I58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="18"/>
     </row>
     <row r="59" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="21" t="s">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I59" s="15" t="s">
+      <c r="I59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J59" s="15"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="22"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="18"/>
     </row>
     <row r="60" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19" t="s">
+      <c r="B60" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21" t="s">
+      <c r="F60" s="16"/>
+      <c r="G60" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H60" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I60" s="16" t="s">
+      <c r="I60" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="22"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="18"/>
     </row>
     <row r="61" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19" t="s">
+      <c r="B61" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="21" t="s">
+      <c r="F61" s="16"/>
+      <c r="G61" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="I61" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="22"/>
+      <c r="I61" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="18"/>
     </row>
     <row r="62" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19" t="s">
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="21" t="s">
+      <c r="F62" s="16"/>
+      <c r="G62" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I62" s="16" t="s">
+      <c r="I62" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16" t="s">
+      <c r="J62" s="11"/>
+      <c r="K62" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="L62" s="22" t="s">
+      <c r="L62" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="21" t="s">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H63" s="15" t="s">
+      <c r="H63" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I63" s="16" t="s">
+      <c r="I63" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J63" s="16" t="s">
+      <c r="J63" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K63" s="16"/>
-      <c r="L63" s="22"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="18"/>
     </row>
     <row r="64" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="21" t="s">
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="H64" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I64" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="22"/>
+      <c r="I64" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="18"/>
     </row>
     <row r="65" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="21" t="s">
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="I65" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="22"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="18"/>
     </row>
     <row r="66" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" s="21" t="s">
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="15" t="s">
+      <c r="I66" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="22"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="18"/>
     </row>
     <row r="67" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="26" t="s">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="27"/>
-      <c r="G67" s="21" t="s">
+      <c r="F67" s="23"/>
+      <c r="G67" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="I67" s="16" t="s">
+      <c r="I67" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="J67" s="16" t="s">
+      <c r="J67" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K67" s="16" t="s">
+      <c r="K67" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L67" s="22" t="s">
+      <c r="L67" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19" t="s">
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="20"/>
-      <c r="G68" s="21" t="s">
+      <c r="F68" s="16"/>
+      <c r="G68" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I68" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="22"/>
+      <c r="I68" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="18"/>
     </row>
     <row r="69" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="26" t="s">
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="21" t="s">
+      <c r="F69" s="23"/>
+      <c r="G69" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="H69" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="28" t="s">
+      <c r="I69" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J69" s="28" t="s">
+      <c r="J69" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K69" s="16"/>
-      <c r="L69" s="22"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="18"/>
     </row>
     <row r="70" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19" t="s">
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="21" t="s">
+      <c r="F70" s="16"/>
+      <c r="G70" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="H70" s="15" t="s">
+      <c r="H70" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="I70" s="16" t="s">
+      <c r="I70" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="J70" s="16" t="s">
+      <c r="J70" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K70" s="16"/>
-      <c r="L70" s="22"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="18"/>
     </row>
     <row r="71" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19" t="s">
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="20"/>
-      <c r="G71" s="21" t="s">
+      <c r="F71" s="16"/>
+      <c r="G71" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H71" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I71" s="16" t="s">
+      <c r="I71" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="J71" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K71" s="16"/>
-      <c r="L71" s="22"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="18"/>
     </row>
     <row r="72" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19" t="s">
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="20"/>
-      <c r="G72" s="21" t="s">
+      <c r="F72" s="16"/>
+      <c r="G72" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="H72" s="15" t="s">
+      <c r="H72" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I72" s="16" t="s">
+      <c r="I72" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="22"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="18"/>
     </row>
     <row r="73" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
     </row>
     <row r="74" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
     </row>
     <row r="75" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
     </row>
     <row r="76" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
     </row>
     <row r="77" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
     </row>
     <row r="78" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
     </row>
     <row r="79" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
     </row>
     <row r="80" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
     </row>
     <row r="81" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="5"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="17"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -3242,13 +3233,13 @@
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="5"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="17"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -3256,13 +3247,13 @@
       <c r="L82" s="1"/>
     </row>
     <row r="83" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="5"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="17"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -3270,13 +3261,13 @@
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="5"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="17"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -3284,13 +3275,13 @@
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="5"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="17"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -3298,13 +3289,13 @@
       <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="5"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="17"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>

--- a/WardStockCupboard.xlsx
+++ b/WardStockCupboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF4EFC6-58FA-4E18-9E6D-9A782800889C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4476F2F9-77D7-4BFC-93EF-2E7C4821FC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -780,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -788,6 +788,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -812,7 +828,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -844,9 +859,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1201,8 +1213,8 @@
   </sheetPr>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection sqref="A1:L86"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A48" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection sqref="A1:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1221,2011 +1233,2011 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="18"/>
+      <c r="H2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="18"/>
+      <c r="H3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="18"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="18"/>
+      <c r="I5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="18"/>
+      <c r="H6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="18"/>
+      <c r="H7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="18"/>
+      <c r="H8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="18"/>
+      <c r="H9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11" t="s">
+      <c r="H11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="18"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="18"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11" t="s">
+      <c r="J13" s="17"/>
+      <c r="K13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="18"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="18"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="18" t="s">
+      <c r="K16" s="17"/>
+      <c r="L16" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="18"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11" t="s">
+      <c r="J18" s="17"/>
+      <c r="K18" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="18"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="18"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="18"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="18"/>
+      <c r="H22" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="18"/>
+      <c r="I23" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="18"/>
+      <c r="H24" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="18"/>
+      <c r="H25" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="18"/>
+      <c r="I26" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="18"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="18"/>
+      <c r="I28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="23"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="18"/>
+      <c r="H29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="23"/>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11" t="s">
+      <c r="I30" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="L30" s="18"/>
+      <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="18"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11" t="s">
+      <c r="J32" s="17"/>
+      <c r="K32" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="L32" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17" t="s">
+      <c r="F33" s="21"/>
+      <c r="G33" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="18"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17" t="s">
+      <c r="F34" s="21"/>
+      <c r="G34" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="18"/>
+      <c r="H34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="23"/>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17" t="s">
+      <c r="F35" s="21"/>
+      <c r="G35" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="18"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="23"/>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17" t="s">
+      <c r="F36" s="21"/>
+      <c r="G36" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="18"/>
+      <c r="H36" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17" t="s">
+      <c r="F37" s="21"/>
+      <c r="G37" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="18"/>
+      <c r="H37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17" t="s">
+      <c r="F38" s="21"/>
+      <c r="G38" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="18"/>
+      <c r="I38" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17" t="s">
+      <c r="F39" s="21"/>
+      <c r="G39" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="11" t="s">
+      <c r="H39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="18"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17" t="s">
+      <c r="F40" s="21"/>
+      <c r="G40" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I40" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="18"/>
+      <c r="I40" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17" t="s">
+      <c r="F41" s="21"/>
+      <c r="G41" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="I41" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="18"/>
+      <c r="I41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17" t="s">
+      <c r="F42" s="21"/>
+      <c r="G42" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H42" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J42" s="11" t="s">
+      <c r="H42" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="18"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17" t="s">
+      <c r="F43" s="21"/>
+      <c r="G43" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H43" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="18"/>
+      <c r="H43" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15" t="s">
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17" t="s">
+      <c r="F44" s="21"/>
+      <c r="G44" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="18"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="23"/>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15" t="s">
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17" t="s">
+      <c r="F45" s="21"/>
+      <c r="G45" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="18"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="23"/>
     </row>
     <row r="46" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15" t="s">
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17" t="s">
+      <c r="F46" s="21"/>
+      <c r="G46" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="18"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="23"/>
     </row>
     <row r="47" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17" t="s">
+      <c r="F47" s="21"/>
+      <c r="G47" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="I47" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="11" t="s">
+      <c r="I47" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="K47" s="11"/>
-      <c r="L47" s="18"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="23"/>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11" t="s">
+      <c r="H48" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="18"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="23"/>
     </row>
     <row r="49" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15" t="s">
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17" t="s">
+      <c r="F49" s="21"/>
+      <c r="G49" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="18"/>
+      <c r="H49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="23"/>
     </row>
     <row r="50" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15" t="s">
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17" t="s">
+      <c r="F50" s="21"/>
+      <c r="G50" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="I50" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="18"/>
+      <c r="I50" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="23"/>
     </row>
     <row r="51" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="23"/>
+    </row>
+    <row r="52" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15" t="s">
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="23"/>
+    </row>
+    <row r="53" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17" t="s">
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" s="17"/>
+      <c r="L53" s="23"/>
+    </row>
+    <row r="54" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="23"/>
+    </row>
+    <row r="55" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="23"/>
+    </row>
+    <row r="56" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="18"/>
-    </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17" t="s">
+      <c r="H56" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="23"/>
+    </row>
+    <row r="57" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="23"/>
+    </row>
+    <row r="58" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="23"/>
+    </row>
+    <row r="59" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="16"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="23"/>
+    </row>
+    <row r="60" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H52" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="18"/>
-    </row>
-    <row r="53" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="15" t="s">
+      <c r="H60" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="23"/>
+    </row>
+    <row r="61" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15" t="s">
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17" t="s">
+      <c r="F61" s="21"/>
+      <c r="G61" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H53" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K53" s="11"/>
-      <c r="L53" s="18"/>
-    </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" s="15" t="s">
+      <c r="H61" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="23"/>
+    </row>
+    <row r="62" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15" t="s">
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17" t="s">
+      <c r="F62" s="21"/>
+      <c r="G62" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H54" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="18"/>
-    </row>
-    <row r="55" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" s="15" t="s">
+      <c r="H62" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L62" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J63" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K63" s="17"/>
+      <c r="L63" s="23"/>
+    </row>
+    <row r="64" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="21"/>
+      <c r="G64" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="23"/>
+    </row>
+    <row r="65" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15" t="s">
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G55" s="17" t="s">
+      <c r="F65" s="21"/>
+      <c r="G65" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H55" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="18"/>
-    </row>
-    <row r="56" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" s="14" t="s">
+      <c r="H65" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="23"/>
+    </row>
+    <row r="66" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="23"/>
+    </row>
+    <row r="67" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="28"/>
+      <c r="G67" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="I67" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J67" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K67" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L67" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="23"/>
+    </row>
+    <row r="69" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="28"/>
+      <c r="G69" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="17"/>
+      <c r="L69" s="23"/>
+    </row>
+    <row r="70" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15" t="s">
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="I70" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K70" s="17"/>
+      <c r="L70" s="23"/>
+    </row>
+    <row r="71" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="18"/>
-    </row>
-    <row r="57" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="18"/>
-    </row>
-    <row r="58" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="18"/>
-    </row>
-    <row r="59" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" s="10"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="18"/>
-    </row>
-    <row r="60" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="18"/>
-    </row>
-    <row r="61" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="18"/>
-    </row>
-    <row r="62" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="L62" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J63" s="11" t="s">
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="21"/>
+      <c r="G71" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I71" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J71" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K63" s="11"/>
-      <c r="L63" s="18"/>
-    </row>
-    <row r="64" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="18"/>
-    </row>
-    <row r="65" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="18"/>
-    </row>
-    <row r="66" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="18"/>
-    </row>
-    <row r="67" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="22" t="s">
+      <c r="K71" s="17"/>
+      <c r="L71" s="23"/>
+    </row>
+    <row r="72" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="17" t="s">
+      <c r="F72" s="21"/>
+      <c r="G72" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="H67" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K67" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L67" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="18"/>
-    </row>
-    <row r="69" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" s="11"/>
-      <c r="L69" s="18"/>
-    </row>
-    <row r="70" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K70" s="11"/>
-      <c r="L70" s="18"/>
-    </row>
-    <row r="71" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="J71" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K71" s="11"/>
-      <c r="L71" s="18"/>
-    </row>
-    <row r="72" spans="1:12" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H72" s="10" t="s">
+      <c r="H72" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="I72" s="11" t="s">
+      <c r="I72" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="18"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="23"/>
     </row>
     <row r="73" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
     </row>
     <row r="74" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
     </row>
     <row r="76" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
     </row>
     <row r="78" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
     </row>
     <row r="79" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="25"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
     </row>
     <row r="80" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="25"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="25"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="17"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="9"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -3233,13 +3245,13 @@
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="25"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="17"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="9"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -3247,13 +3259,13 @@
       <c r="L82" s="1"/>
     </row>
     <row r="83" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="25"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="17"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="9"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -3261,13 +3273,13 @@
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="25"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="17"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="9"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -3275,13 +3287,13 @@
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="25"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="17"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="9"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -3289,13 +3301,13 @@
       <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="25"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="17"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="9"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
